--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2045756.669077088</v>
+        <v>-2046423.030753231</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>387777.8738956731</v>
+        <v>387777.8738956737</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>86.82170806664908</v>
+        <v>33.79915464223385</v>
       </c>
       <c r="H11" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>37.05034583237531</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.74993846779111</v>
+        <v>23.74993846779097</v>
       </c>
       <c r="T11" t="n">
-        <v>18.92346735507959</v>
+        <v>18.92346735507945</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>83.57051687650755</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R12" t="n">
-        <v>17.74395037481719</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>11.45560918177133</v>
+        <v>11.45560918177119</v>
       </c>
       <c r="U12" t="n">
-        <v>86.82170806664908</v>
+        <v>33.73864095187851</v>
       </c>
       <c r="V12" t="n">
-        <v>37.159921892716</v>
+        <v>50.09252366319691</v>
       </c>
       <c r="W12" t="n">
-        <v>63.21558455432535</v>
+        <v>63.2155845543252</v>
       </c>
       <c r="X12" t="n">
-        <v>13.82391541678436</v>
+        <v>13.82391541678422</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.89528711133937</v>
+        <v>19.89528711133923</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.85365758915252</v>
+        <v>31.85365758915237</v>
       </c>
       <c r="T13" t="n">
-        <v>20.24917275860147</v>
+        <v>20.24917275860133</v>
       </c>
       <c r="U13" t="n">
-        <v>85.16725939265763</v>
+        <v>85.16725939265748</v>
       </c>
       <c r="V13" t="n">
-        <v>41.62001616176366</v>
+        <v>41.62001616176352</v>
       </c>
       <c r="W13" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="X13" t="n">
-        <v>18.43045638555628</v>
+        <v>18.43045638555614</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.65227379148217</v>
+        <v>13.65227379148203</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="H14" t="n">
-        <v>86.82170806664908</v>
+        <v>36.90995058056242</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>37.05034583237517</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.74993846779097</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.92346735507945</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.66056629594524</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>76.47256046510448</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>12.93260177048104</v>
       </c>
       <c r="S15" t="n">
-        <v>84.65093290637196</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>11.45560918177133</v>
+        <v>11.45560918177119</v>
       </c>
       <c r="U15" t="n">
-        <v>33.73864095187865</v>
+        <v>33.73864095187851</v>
       </c>
       <c r="V15" t="n">
-        <v>37.159921892716</v>
+        <v>37.15992189271586</v>
       </c>
       <c r="W15" t="n">
-        <v>63.21558455432535</v>
+        <v>63.2155845543252</v>
       </c>
       <c r="X15" t="n">
-        <v>86.82170806664908</v>
+        <v>13.82391541678422</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.89528711133937</v>
+        <v>19.89528711133923</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.85365758915252</v>
+        <v>31.85365758915237</v>
       </c>
       <c r="T16" t="n">
-        <v>20.24917275860147</v>
+        <v>20.24917275860133</v>
       </c>
       <c r="U16" t="n">
-        <v>85.16725939265763</v>
+        <v>85.16725939265748</v>
       </c>
       <c r="V16" t="n">
-        <v>41.62001616176366</v>
+        <v>41.62001616176352</v>
       </c>
       <c r="W16" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="X16" t="n">
-        <v>18.43045638555628</v>
+        <v>18.43045638555614</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.65227379148217</v>
+        <v>13.65227379148203</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>68.64999725544385</v>
       </c>
       <c r="G17" t="n">
-        <v>84.27671840285255</v>
+        <v>84.27671840285257</v>
       </c>
       <c r="H17" t="n">
-        <v>12.34718069694392</v>
+        <v>12.34718069694395</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>3.34721144119726</v>
       </c>
       <c r="X17" t="n">
-        <v>25.23346191013692</v>
+        <v>25.2334619101365</v>
       </c>
       <c r="Y17" t="n">
         <v>47.73631503388026</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1965,25 +1965,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>70.43649243822925</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>76.47256046510448</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>15.65624499660919</v>
       </c>
       <c r="D20" t="n">
-        <v>3.222907257657653</v>
+        <v>3.222907257656799</v>
       </c>
       <c r="E20" t="n">
         <v>36.92965967706652</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>76.47256046510448</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>76.47256046510437</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>84.27671840285255</v>
       </c>
       <c r="H23" t="n">
-        <v>12.34718069694392</v>
+        <v>12.34718069694395</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="J24" t="n">
         <v>51.85834769223183</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R24" t="n">
-        <v>24.61421277287265</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="S24" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>18.57814474599743</v>
       </c>
       <c r="V24" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2479324259055</v>
+        <v>161.2479324259056</v>
       </c>
       <c r="C26" t="n">
-        <v>137.366189429251</v>
+        <v>137.3661894292511</v>
       </c>
       <c r="D26" t="n">
         <v>124.9328516902995</v>
@@ -2567,13 +2567,13 @@
         <v>190.3599416880857</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9866628354944</v>
+        <v>205.9866628354945</v>
       </c>
       <c r="H26" t="n">
         <v>134.0571251295858</v>
       </c>
       <c r="I26" t="n">
-        <v>27.70003690313376</v>
+        <v>27.70003690313382</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39962953854956</v>
+        <v>14.39962953854962</v>
       </c>
       <c r="T26" t="n">
-        <v>9.573158425838045</v>
+        <v>9.573158425838102</v>
       </c>
       <c r="U26" t="n">
-        <v>37.31025736670384</v>
+        <v>37.31025736670389</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0404756572242</v>
+        <v>108.0404756572243</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0571558738391</v>
+        <v>125.0571558738392</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9434063427783</v>
+        <v>146.9434063427784</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4462594665221</v>
+        <v>169.4462594665222</v>
       </c>
     </row>
     <row r="27">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>17.74913855397655</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.105300252529783</v>
+        <v>2.105300252529839</v>
       </c>
       <c r="U27" t="n">
-        <v>24.3883320226371</v>
+        <v>99.29254717244271</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80961296347445</v>
+        <v>27.80961296347451</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
@@ -2700,7 +2700,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54497818209782</v>
+        <v>10.54497818209788</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50334865991097</v>
+        <v>22.50334865991102</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89886382935993</v>
+        <v>10.89886382935998</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81695046341608</v>
+        <v>75.81695046341613</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26970723252211</v>
+        <v>32.26970723252217</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47139913740753</v>
+        <v>77.47139913740759</v>
       </c>
       <c r="X28" t="n">
-        <v>9.080147456314734</v>
+        <v>9.080147456314791</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.301964862240624</v>
+        <v>4.301964862240681</v>
       </c>
     </row>
     <row r="29">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3144462547807</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.105300252529783</v>
+        <v>213.1326068402337</v>
       </c>
       <c r="U30" t="n">
         <v>24.3883320226371</v>
@@ -2934,7 +2934,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>100.7476067386664</v>
+        <v>4.47360648754281</v>
       </c>
       <c r="Y30" t="n">
         <v>10.54497818209782</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>44.71105153130998</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7380757353064</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.6724707086533</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.85834769223183</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>24.38833202263713</v>
       </c>
       <c r="V33" t="n">
-        <v>27.80961296347448</v>
+        <v>159.3356044645317</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
@@ -3272,7 +3272,7 @@
         <v>100.8586288671716</v>
       </c>
       <c r="E35" t="n">
-        <v>134.5653812865804</v>
+        <v>134.5653812865805</v>
       </c>
       <c r="F35" t="n">
         <v>166.2857188649578</v>
@@ -3284,7 +3284,7 @@
         <v>109.9829023064579</v>
       </c>
       <c r="I35" t="n">
-        <v>3.625814080005853</v>
+        <v>3.625814080005881</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.23603454357593</v>
+        <v>13.23603454357595</v>
       </c>
       <c r="V35" t="n">
-        <v>83.96625283409631</v>
+        <v>83.96625283409634</v>
       </c>
       <c r="W35" t="n">
         <v>100.9829330507112</v>
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7380757353064</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1386269945785</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276399745649</v>
+        <v>0.3141091995092212</v>
       </c>
       <c r="V36" t="n">
-        <v>3.735390140346539</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>29.79105280195589</v>
+        <v>241.9140225683187</v>
       </c>
       <c r="X36" t="n">
-        <v>8.069311061029831</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>51.74272764028817</v>
+        <v>51.7427276402882</v>
       </c>
       <c r="V37" t="n">
-        <v>8.195484409394197</v>
+        <v>8.195484409394226</v>
       </c>
       <c r="W37" t="n">
-        <v>53.39717631427962</v>
+        <v>53.39717631427965</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.1737096027776</v>
+        <v>137.1737096027777</v>
       </c>
       <c r="C38" t="n">
-        <v>113.2919666061231</v>
+        <v>113.2919666061232</v>
       </c>
       <c r="D38" t="n">
         <v>100.8586288671716</v>
@@ -3521,7 +3521,7 @@
         <v>109.9829023064579</v>
       </c>
       <c r="I38" t="n">
-        <v>3.625814080005881</v>
+        <v>3.62581408000591</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.23603454357595</v>
+        <v>13.23603454357598</v>
       </c>
       <c r="V38" t="n">
-        <v>83.96625283409634</v>
+        <v>83.96625283409637</v>
       </c>
       <c r="W38" t="n">
         <v>100.9829330507112</v>
       </c>
       <c r="X38" t="n">
-        <v>122.8691835196504</v>
+        <v>122.8691835196505</v>
       </c>
       <c r="Y38" t="n">
         <v>145.3720366433942</v>
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7380757353064</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1386269945785</v>
       </c>
       <c r="J39" t="n">
-        <v>51.85834769223183</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276399745649</v>
+        <v>0.3141091995092496</v>
       </c>
       <c r="V39" t="n">
-        <v>3.735390140346567</v>
+        <v>3.735390140346595</v>
       </c>
       <c r="W39" t="n">
-        <v>29.79105280195591</v>
+        <v>86.82489138674462</v>
       </c>
       <c r="X39" t="n">
-        <v>99.21572497303607</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>51.7427276402882</v>
+        <v>51.74272764028823</v>
       </c>
       <c r="V40" t="n">
-        <v>8.195484409394226</v>
+        <v>8.195484409394254</v>
       </c>
       <c r="W40" t="n">
-        <v>53.39717631427965</v>
+        <v>53.39717631427968</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3144462547807</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>176.5794684720032</v>
+        <v>0.3141091995091075</v>
       </c>
       <c r="V42" t="n">
         <v>3.735390140346453</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>29.7910528019558</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>160.5893256162315</v>
       </c>
     </row>
     <row r="43">
@@ -3995,7 +3995,7 @@
         <v>109.9829023064578</v>
       </c>
       <c r="I44" t="n">
-        <v>3.625814080005796</v>
+        <v>3.625814080005824</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.23603454357588</v>
+        <v>13.2360345435759</v>
       </c>
       <c r="V44" t="n">
-        <v>83.96625283409625</v>
+        <v>83.96625283409628</v>
       </c>
       <c r="W44" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X44" t="n">
         <v>122.8691835196504</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.85834769223183</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.80792705998719</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276399745649</v>
+        <v>0.3141091995091644</v>
       </c>
       <c r="V45" t="n">
-        <v>3.735390140346482</v>
+        <v>140.9122507665532</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>29.79105280195586</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>51.74272764028812</v>
+        <v>51.74272764028814</v>
       </c>
       <c r="V46" t="n">
-        <v>8.19548440939414</v>
+        <v>8.195484409394169</v>
       </c>
       <c r="W46" t="n">
-        <v>53.39717631427956</v>
+        <v>53.39717631427959</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>219.7677184288406</v>
+        <v>216.4836869236469</v>
       </c>
       <c r="C11" t="n">
-        <v>219.7677184288406</v>
+        <v>128.7849919068298</v>
       </c>
       <c r="D11" t="n">
-        <v>219.7677184288406</v>
+        <v>41.08629689001257</v>
       </c>
       <c r="E11" t="n">
-        <v>219.7677184288406</v>
+        <v>41.08629689001257</v>
       </c>
       <c r="F11" t="n">
-        <v>219.7677184288406</v>
+        <v>41.08629689001257</v>
       </c>
       <c r="G11" t="n">
-        <v>132.0690234120233</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="H11" t="n">
-        <v>44.37032839520598</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I11" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J11" t="n">
-        <v>92.89922763131452</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K11" t="n">
-        <v>92.89922763131452</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L11" t="n">
-        <v>141.5264089314391</v>
+        <v>55.5729179454565</v>
       </c>
       <c r="M11" t="n">
-        <v>225.0773366292863</v>
+        <v>138.5559862811133</v>
       </c>
       <c r="N11" t="n">
-        <v>311.0308276152688</v>
+        <v>216.0393714015735</v>
       </c>
       <c r="O11" t="n">
-        <v>347.2868322665963</v>
+        <v>252.295376052901</v>
       </c>
       <c r="P11" t="n">
-        <v>347.2868322665963</v>
+        <v>252.295376052901</v>
       </c>
       <c r="Q11" t="n">
-        <v>347.2868322665963</v>
+        <v>338.0066232220118</v>
       </c>
       <c r="R11" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="S11" t="n">
-        <v>323.2969954304436</v>
+        <v>323.2969954304432</v>
       </c>
       <c r="T11" t="n">
-        <v>304.1823819404643</v>
+        <v>304.182381940464</v>
       </c>
       <c r="U11" t="n">
-        <v>304.1823819404643</v>
+        <v>304.182381940464</v>
       </c>
       <c r="V11" t="n">
-        <v>304.1823819404643</v>
+        <v>304.182381940464</v>
       </c>
       <c r="W11" t="n">
-        <v>219.7677184288406</v>
+        <v>216.4836869236469</v>
       </c>
       <c r="X11" t="n">
-        <v>219.7677184288406</v>
+        <v>216.4836869236469</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.7677184288406</v>
+        <v>216.4836869236469</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.945736645331927</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="C12" t="n">
-        <v>6.945736645331927</v>
+        <v>59.32790603142467</v>
       </c>
       <c r="D12" t="n">
-        <v>6.945736645331927</v>
+        <v>59.32790603142467</v>
       </c>
       <c r="E12" t="n">
-        <v>6.945736645331927</v>
+        <v>59.32790603142467</v>
       </c>
       <c r="F12" t="n">
-        <v>6.945736645331927</v>
+        <v>59.32790603142467</v>
       </c>
       <c r="G12" t="n">
-        <v>6.945736645331927</v>
+        <v>59.32790603142467</v>
       </c>
       <c r="H12" t="n">
-        <v>6.945736645331927</v>
+        <v>59.32790603142467</v>
       </c>
       <c r="I12" t="n">
-        <v>6.945736645331927</v>
+        <v>59.32790603142467</v>
       </c>
       <c r="J12" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K12" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L12" t="n">
-        <v>92.89922763131452</v>
+        <v>90.52050120316842</v>
       </c>
       <c r="M12" t="n">
-        <v>92.89922763131452</v>
+        <v>176.4739921891509</v>
       </c>
       <c r="N12" t="n">
-        <v>178.8527186172971</v>
+        <v>176.4739921891509</v>
       </c>
       <c r="O12" t="n">
-        <v>262.4274831751339</v>
+        <v>262.4274831751333</v>
       </c>
       <c r="P12" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="Q12" t="n">
-        <v>347.2868322665963</v>
+        <v>341.1897938556108</v>
       </c>
       <c r="R12" t="n">
-        <v>329.3636500698113</v>
+        <v>341.1897938556108</v>
       </c>
       <c r="S12" t="n">
-        <v>241.664955052994</v>
+        <v>341.1897938556108</v>
       </c>
       <c r="T12" t="n">
-        <v>230.0936326471644</v>
+        <v>329.6184714497813</v>
       </c>
       <c r="U12" t="n">
-        <v>142.3949376303472</v>
+        <v>295.5390361448535</v>
       </c>
       <c r="V12" t="n">
-        <v>104.8596629912401</v>
+        <v>244.9405273941495</v>
       </c>
       <c r="W12" t="n">
-        <v>41.00553717879024</v>
+        <v>181.0864015816998</v>
       </c>
       <c r="X12" t="n">
-        <v>27.04198625274543</v>
+        <v>167.1228506556552</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.945736645331927</v>
+        <v>147.0266010482418</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="C13" t="n">
-        <v>6.945736645331927</v>
+        <v>14.50499714818748</v>
       </c>
       <c r="D13" t="n">
-        <v>6.945736645331927</v>
+        <v>72.22828243244341</v>
       </c>
       <c r="E13" t="n">
-        <v>6.945736645331927</v>
+        <v>133.4230116648002</v>
       </c>
       <c r="F13" t="n">
-        <v>6.945736645331927</v>
+        <v>197.3395073009975</v>
       </c>
       <c r="G13" t="n">
-        <v>6.945736645331927</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="H13" t="n">
-        <v>6.945736645331927</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="I13" t="n">
-        <v>6.945736645331927</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="J13" t="n">
-        <v>59.87828592458651</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="K13" t="n">
-        <v>145.8317769105691</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="L13" t="n">
-        <v>145.8317769105691</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="M13" t="n">
-        <v>145.8317769105691</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="N13" t="n">
-        <v>231.7852678965517</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="O13" t="n">
-        <v>231.7852678965517</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="P13" t="n">
-        <v>231.7852678965517</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.7483064896379</v>
+        <v>307.7483064896368</v>
       </c>
       <c r="R13" t="n">
-        <v>307.7483064896379</v>
+        <v>307.7483064896368</v>
       </c>
       <c r="S13" t="n">
-        <v>275.5728947834232</v>
+        <v>275.5728947834223</v>
       </c>
       <c r="T13" t="n">
-        <v>255.1191849262499</v>
+        <v>255.1191849262492</v>
       </c>
       <c r="U13" t="n">
-        <v>169.0916501861917</v>
+        <v>169.0916501861911</v>
       </c>
       <c r="V13" t="n">
-        <v>127.0512298207739</v>
+        <v>127.0512298207734</v>
       </c>
       <c r="W13" t="n">
-        <v>39.35253480395663</v>
+        <v>39.35253480395633</v>
       </c>
       <c r="X13" t="n">
-        <v>20.73591219228362</v>
+        <v>20.73591219228346</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>270.0418216957837</v>
+        <v>257.0504967930444</v>
       </c>
       <c r="C14" t="n">
-        <v>270.0418216957837</v>
+        <v>257.0504967930444</v>
       </c>
       <c r="D14" t="n">
-        <v>270.0418216957837</v>
+        <v>169.3518017762273</v>
       </c>
       <c r="E14" t="n">
-        <v>270.0418216957837</v>
+        <v>169.3518017762273</v>
       </c>
       <c r="F14" t="n">
-        <v>182.3431266789664</v>
+        <v>169.3518017762273</v>
       </c>
       <c r="G14" t="n">
-        <v>94.64443166214917</v>
+        <v>81.65310675941021</v>
       </c>
       <c r="H14" t="n">
-        <v>6.945736645331927</v>
+        <v>44.37032839520582</v>
       </c>
       <c r="I14" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J14" t="n">
-        <v>6.945736645331927</v>
+        <v>92.65698381444267</v>
       </c>
       <c r="K14" t="n">
-        <v>6.945736645331927</v>
+        <v>92.65698381444267</v>
       </c>
       <c r="L14" t="n">
-        <v>92.89922763131452</v>
+        <v>141.2841651145673</v>
       </c>
       <c r="M14" t="n">
-        <v>178.8527186172971</v>
+        <v>224.2672334502241</v>
       </c>
       <c r="N14" t="n">
-        <v>261.3333412806138</v>
+        <v>301.7506185706843</v>
       </c>
       <c r="O14" t="n">
-        <v>347.2868322665963</v>
+        <v>338.0066232220118</v>
       </c>
       <c r="P14" t="n">
-        <v>347.2868322665963</v>
+        <v>338.0066232220118</v>
       </c>
       <c r="Q14" t="n">
-        <v>347.2868322665963</v>
+        <v>338.0066232220118</v>
       </c>
       <c r="R14" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="S14" t="n">
-        <v>347.2868322665963</v>
+        <v>323.2969954304432</v>
       </c>
       <c r="T14" t="n">
-        <v>347.2868322665963</v>
+        <v>304.182381940464</v>
       </c>
       <c r="U14" t="n">
-        <v>347.2868322665963</v>
+        <v>257.0504967930444</v>
       </c>
       <c r="V14" t="n">
-        <v>347.2868322665963</v>
+        <v>257.0504967930444</v>
       </c>
       <c r="W14" t="n">
-        <v>347.2868322665963</v>
+        <v>257.0504967930444</v>
       </c>
       <c r="X14" t="n">
-        <v>270.0418216957837</v>
+        <v>257.0504967930444</v>
       </c>
       <c r="Y14" t="n">
-        <v>270.0418216957837</v>
+        <v>257.0504967930444</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.945736645331927</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945736645331927</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="D15" t="n">
-        <v>6.945736645331927</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="E15" t="n">
-        <v>6.945736645331927</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="F15" t="n">
-        <v>6.945736645331927</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="G15" t="n">
-        <v>6.945736645331927</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="H15" t="n">
-        <v>6.945736645331927</v>
+        <v>59.32790603142467</v>
       </c>
       <c r="I15" t="n">
-        <v>6.945736645331927</v>
+        <v>59.32790603142467</v>
       </c>
       <c r="J15" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K15" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L15" t="n">
-        <v>92.89922763131452</v>
+        <v>92.89922763131436</v>
       </c>
       <c r="M15" t="n">
-        <v>178.8527186172971</v>
+        <v>92.89922763131436</v>
       </c>
       <c r="N15" t="n">
-        <v>261.3333412806138</v>
+        <v>176.4739921891509</v>
       </c>
       <c r="O15" t="n">
-        <v>347.2868322665963</v>
+        <v>262.4274831751333</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="Q15" t="n">
-        <v>347.2868322665963</v>
+        <v>341.1897938556108</v>
       </c>
       <c r="R15" t="n">
-        <v>347.2868322665963</v>
+        <v>328.1265597440138</v>
       </c>
       <c r="S15" t="n">
-        <v>261.7808394318772</v>
+        <v>328.1265597440138</v>
       </c>
       <c r="T15" t="n">
-        <v>250.2095170260475</v>
+        <v>316.5552373381843</v>
       </c>
       <c r="U15" t="n">
-        <v>216.1300817211196</v>
+        <v>282.4758020332565</v>
       </c>
       <c r="V15" t="n">
-        <v>178.5948070820126</v>
+        <v>244.9405273941495</v>
       </c>
       <c r="W15" t="n">
-        <v>114.7406812695627</v>
+        <v>181.0864015816998</v>
       </c>
       <c r="X15" t="n">
-        <v>27.04198625274543</v>
+        <v>167.1228506556552</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.945736645331927</v>
+        <v>147.0266010482418</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.5590942194729</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="C16" t="n">
-        <v>32.5590942194729</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="D16" t="n">
-        <v>59.04536396027104</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="E16" t="n">
-        <v>120.2400931926277</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="F16" t="n">
-        <v>184.1565888288249</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="G16" t="n">
-        <v>184.1565888288249</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="H16" t="n">
-        <v>221.4927217165545</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I16" t="n">
-        <v>221.4927217165545</v>
+        <v>45.35836360998912</v>
       </c>
       <c r="J16" t="n">
-        <v>221.4927217165545</v>
+        <v>128.1583661222551</v>
       </c>
       <c r="K16" t="n">
-        <v>307.446212702537</v>
+        <v>128.1583661222551</v>
       </c>
       <c r="L16" t="n">
-        <v>307.446212702537</v>
+        <v>214.1118571082375</v>
       </c>
       <c r="M16" t="n">
-        <v>307.446212702537</v>
+        <v>214.1118571082375</v>
       </c>
       <c r="N16" t="n">
-        <v>307.446212702537</v>
+        <v>214.1118571082375</v>
       </c>
       <c r="O16" t="n">
-        <v>307.446212702537</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="P16" t="n">
-        <v>307.446212702537</v>
+        <v>231.7852678965504</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.446212702537</v>
+        <v>307.7483064896368</v>
       </c>
       <c r="R16" t="n">
-        <v>307.7483064896379</v>
+        <v>307.7483064896368</v>
       </c>
       <c r="S16" t="n">
-        <v>275.5728947834232</v>
+        <v>275.5728947834223</v>
       </c>
       <c r="T16" t="n">
-        <v>255.1191849262499</v>
+        <v>255.1191849262492</v>
       </c>
       <c r="U16" t="n">
-        <v>169.0916501861917</v>
+        <v>169.0916501861911</v>
       </c>
       <c r="V16" t="n">
-        <v>127.0512298207739</v>
+        <v>127.0512298207734</v>
       </c>
       <c r="W16" t="n">
-        <v>39.35253480395663</v>
+        <v>39.35253480395633</v>
       </c>
       <c r="X16" t="n">
-        <v>20.73591219228362</v>
+        <v>20.73591219228346</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.261603601467</v>
+        <v>230.2616036014668</v>
       </c>
       <c r="C17" t="n">
-        <v>214.4472147160033</v>
+        <v>214.447214716003</v>
       </c>
       <c r="D17" t="n">
-        <v>211.1917528395813</v>
+        <v>211.1917528395812</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8890662970899</v>
+        <v>173.8890662970898</v>
       </c>
       <c r="F17" t="n">
-        <v>104.5456347259344</v>
+        <v>104.5456347259343</v>
       </c>
       <c r="G17" t="n">
-        <v>19.41763633921468</v>
+        <v>19.4176363392147</v>
       </c>
       <c r="H17" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I17" t="n">
-        <v>92.89922763131452</v>
+        <v>88.4044187713632</v>
       </c>
       <c r="J17" t="n">
-        <v>92.89922763131452</v>
+        <v>88.4044187713632</v>
       </c>
       <c r="K17" t="n">
-        <v>92.89922763131452</v>
+        <v>88.4044187713632</v>
       </c>
       <c r="L17" t="n">
-        <v>141.5264089314391</v>
+        <v>137.0316000714878</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5094772670959</v>
+        <v>220.0146684071446</v>
       </c>
       <c r="N17" t="n">
-        <v>301.9928623875561</v>
+        <v>297.4980535276048</v>
       </c>
       <c r="O17" t="n">
-        <v>338.2488670388836</v>
+        <v>333.7540581789323</v>
       </c>
       <c r="P17" t="n">
-        <v>338.2488670388836</v>
+        <v>333.7540581789323</v>
       </c>
       <c r="Q17" t="n">
-        <v>347.2868322665963</v>
+        <v>333.7540581789323</v>
       </c>
       <c r="R17" t="n">
-        <v>347.2868322665963</v>
+        <v>333.7540581789323</v>
       </c>
       <c r="S17" t="n">
-        <v>347.2868322665963</v>
+        <v>333.7540581789323</v>
       </c>
       <c r="T17" t="n">
-        <v>347.2868322665963</v>
+        <v>333.7540581789323</v>
       </c>
       <c r="U17" t="n">
-        <v>347.2868322665963</v>
+        <v>333.7540581789323</v>
       </c>
       <c r="V17" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="W17" t="n">
-        <v>343.9058106088214</v>
+        <v>343.9058106088208</v>
       </c>
       <c r="X17" t="n">
-        <v>318.4174652450467</v>
+        <v>318.4174652450466</v>
       </c>
       <c r="Y17" t="n">
-        <v>270.1989652108242</v>
+        <v>270.1989652108241</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>182.3431266789664</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="C18" t="n">
-        <v>182.3431266789664</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="D18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="E18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="F18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="G18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="H18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I18" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J18" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K18" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L18" t="n">
-        <v>90.52050120316879</v>
+        <v>92.89922763131436</v>
       </c>
       <c r="M18" t="n">
-        <v>176.4739921891514</v>
+        <v>178.8527186172968</v>
       </c>
       <c r="N18" t="n">
-        <v>262.4274831751339</v>
+        <v>264.8062096032792</v>
       </c>
       <c r="O18" t="n">
-        <v>262.4274831751339</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="P18" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="Q18" t="n">
-        <v>347.2868322665963</v>
+        <v>341.1897938556108</v>
       </c>
       <c r="R18" t="n">
-        <v>347.2868322665963</v>
+        <v>341.1897938556108</v>
       </c>
       <c r="S18" t="n">
-        <v>347.2868322665963</v>
+        <v>253.4910988387937</v>
       </c>
       <c r="T18" t="n">
-        <v>347.2868322665963</v>
+        <v>182.3431266789661</v>
       </c>
       <c r="U18" t="n">
-        <v>347.2868322665963</v>
+        <v>94.64443166214903</v>
       </c>
       <c r="V18" t="n">
-        <v>347.2868322665963</v>
+        <v>94.64443166214903</v>
       </c>
       <c r="W18" t="n">
-        <v>270.0418216957837</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="X18" t="n">
-        <v>270.0418216957837</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Y18" t="n">
-        <v>270.0418216957837</v>
+        <v>6.945736645331915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="C19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="D19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="E19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="F19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="G19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="H19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="M19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="N19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="O19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="P19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="R19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="S19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="T19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="U19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="V19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="W19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="X19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.2616036014673</v>
+        <v>230.2616036014667</v>
       </c>
       <c r="C20" t="n">
-        <v>214.4472147160034</v>
+        <v>214.4472147160029</v>
       </c>
       <c r="D20" t="n">
-        <v>211.1917528395816</v>
+        <v>211.1917528395815</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8890662970903</v>
+        <v>173.88906629709</v>
       </c>
       <c r="F20" t="n">
-        <v>104.5456347259349</v>
+        <v>104.5456347259346</v>
       </c>
       <c r="G20" t="n">
-        <v>19.41763633921471</v>
+        <v>19.4176363392147</v>
       </c>
       <c r="H20" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I20" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J20" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K20" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L20" t="n">
         <v>55.5729179454565</v>
@@ -5780,22 +5780,22 @@
         <v>252.295376052901</v>
       </c>
       <c r="T20" t="n">
-        <v>252.295376052901</v>
+        <v>338.2488670388835</v>
       </c>
       <c r="U20" t="n">
-        <v>335.8510662481796</v>
+        <v>338.2488670388835</v>
       </c>
       <c r="V20" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="W20" t="n">
-        <v>343.9058106088212</v>
+        <v>343.9058106088208</v>
       </c>
       <c r="X20" t="n">
-        <v>318.4174652450471</v>
+        <v>318.4174652450466</v>
       </c>
       <c r="Y20" t="n">
-        <v>270.1989652108246</v>
+        <v>270.1989652108239</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.945736645331927</v>
+        <v>182.3431266789661</v>
       </c>
       <c r="C21" t="n">
-        <v>6.945736645331927</v>
+        <v>182.3431266789661</v>
       </c>
       <c r="D21" t="n">
-        <v>6.945736645331927</v>
+        <v>182.3431266789661</v>
       </c>
       <c r="E21" t="n">
-        <v>6.945736645331927</v>
+        <v>182.3431266789661</v>
       </c>
       <c r="F21" t="n">
-        <v>6.945736645331927</v>
+        <v>182.3431266789661</v>
       </c>
       <c r="G21" t="n">
-        <v>6.945736645331927</v>
+        <v>94.64443166214903</v>
       </c>
       <c r="H21" t="n">
-        <v>6.945736645331927</v>
+        <v>94.64443166214903</v>
       </c>
       <c r="I21" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J21" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K21" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L21" t="n">
-        <v>92.89922763131452</v>
+        <v>92.89922763131436</v>
       </c>
       <c r="M21" t="n">
-        <v>92.89922763131452</v>
+        <v>92.89922763131436</v>
       </c>
       <c r="N21" t="n">
-        <v>178.8527186172971</v>
+        <v>176.4739921891509</v>
       </c>
       <c r="O21" t="n">
-        <v>264.8062096032797</v>
+        <v>262.4274831751333</v>
       </c>
       <c r="P21" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="Q21" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="R21" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="S21" t="n">
-        <v>259.588137249779</v>
+        <v>259.5881372497786</v>
       </c>
       <c r="T21" t="n">
-        <v>259.588137249779</v>
+        <v>259.5881372497786</v>
       </c>
       <c r="U21" t="n">
-        <v>171.8894422329618</v>
+        <v>259.5881372497786</v>
       </c>
       <c r="V21" t="n">
-        <v>94.64443166214917</v>
+        <v>259.5881372497786</v>
       </c>
       <c r="W21" t="n">
-        <v>94.64443166214917</v>
+        <v>182.3431266789661</v>
       </c>
       <c r="X21" t="n">
-        <v>94.64443166214917</v>
+        <v>182.3431266789661</v>
       </c>
       <c r="Y21" t="n">
-        <v>94.64443166214917</v>
+        <v>182.3431266789661</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="C22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="D22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="E22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="F22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="G22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="H22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="M22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="N22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="O22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="P22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="R22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="S22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="T22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="U22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="V22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="W22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="X22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.261603601467</v>
+        <v>230.2616036014667</v>
       </c>
       <c r="C23" t="n">
-        <v>214.4472147160031</v>
+        <v>214.4472147160028</v>
       </c>
       <c r="D23" t="n">
-        <v>211.1917528395813</v>
+        <v>211.191752839581</v>
       </c>
       <c r="E23" t="n">
-        <v>173.8890662970898</v>
+        <v>173.8890662970897</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5456347259344</v>
+        <v>104.5456347259343</v>
       </c>
       <c r="G23" t="n">
-        <v>19.41763633921468</v>
+        <v>19.4176363392147</v>
       </c>
       <c r="H23" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I23" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J23" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K23" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L23" t="n">
         <v>55.5729179454565</v>
@@ -6020,19 +6020,19 @@
         <v>252.295376052901</v>
       </c>
       <c r="U23" t="n">
-        <v>335.8510662481796</v>
+        <v>333.7540581789323</v>
       </c>
       <c r="V23" t="n">
-        <v>347.286832266596</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="W23" t="n">
-        <v>343.905810608821</v>
+        <v>343.9058106088206</v>
       </c>
       <c r="X23" t="n">
-        <v>318.4174652450467</v>
+        <v>318.4174652450465</v>
       </c>
       <c r="Y23" t="n">
-        <v>270.1989652108242</v>
+        <v>270.198965210824</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.32790603142469</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="C24" t="n">
-        <v>59.32790603142469</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="D24" t="n">
-        <v>59.32790603142469</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="E24" t="n">
-        <v>59.32790603142469</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="F24" t="n">
-        <v>59.32790603142469</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="G24" t="n">
-        <v>59.32790603142469</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="H24" t="n">
-        <v>59.32790603142469</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="I24" t="n">
-        <v>59.32790603142469</v>
+        <v>59.32790603142467</v>
       </c>
       <c r="J24" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K24" t="n">
-        <v>45.9527684050891</v>
+        <v>45.95276840508908</v>
       </c>
       <c r="L24" t="n">
-        <v>90.52050120316879</v>
+        <v>90.52050120316842</v>
       </c>
       <c r="M24" t="n">
-        <v>90.52050120316879</v>
+        <v>176.4739921891509</v>
       </c>
       <c r="N24" t="n">
-        <v>176.4739921891514</v>
+        <v>262.4274831751333</v>
       </c>
       <c r="O24" t="n">
-        <v>262.4274831751339</v>
+        <v>262.4274831751333</v>
       </c>
       <c r="P24" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665958</v>
       </c>
       <c r="Q24" t="n">
-        <v>347.2868322665963</v>
+        <v>341.1897938556108</v>
       </c>
       <c r="R24" t="n">
-        <v>322.4239910818765</v>
+        <v>253.4910988387937</v>
       </c>
       <c r="S24" t="n">
-        <v>234.7252960650592</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="T24" t="n">
-        <v>234.7252960650592</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="U24" t="n">
-        <v>234.7252960650592</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="V24" t="n">
-        <v>147.026601048242</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="W24" t="n">
-        <v>147.026601048242</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="X24" t="n">
-        <v>147.026601048242</v>
+        <v>147.0266010482418</v>
       </c>
       <c r="Y24" t="n">
-        <v>147.026601048242</v>
+        <v>147.0266010482418</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="C25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="D25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="E25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="F25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="G25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="H25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="I25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="J25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="K25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="L25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="M25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="N25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="O25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="P25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="R25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="S25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="T25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="U25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="V25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="W25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="X25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331915</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.02863047568</v>
+        <v>1025.028630475681</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2749037794672</v>
+        <v>886.2749037794682</v>
       </c>
       <c r="D26" t="n">
-        <v>760.080104092296</v>
+        <v>760.080104092297</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8380797390553</v>
+        <v>599.8380797390562</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5553103571505</v>
+        <v>407.5553103571514</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4879741596817</v>
+        <v>199.4879741596822</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07673665504996</v>
+        <v>64.07673665505007</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09690139935929</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J26" t="n">
         <v>171.8193014227423</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4069368927943</v>
+        <v>377.4069368927942</v>
       </c>
       <c r="L26" t="n">
         <v>636.7450330653273</v>
@@ -6239,37 +6239,37 @@
         <v>1218.633316266261</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.600235789997</v>
+        <v>1465.600235789998</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.107239204594</v>
+        <v>1663.107239204596</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.308055083432</v>
+        <v>1786.308055083434</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.845069967964</v>
+        <v>1804.845069967967</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.299989625995</v>
+        <v>1790.299989625997</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.630132630199</v>
+        <v>1780.630132630201</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.943003976962</v>
+        <v>1742.943003976964</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.811210383807</v>
+        <v>1633.811210383808</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.490850915282</v>
+        <v>1507.490850915284</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.063167740759</v>
+        <v>1359.06316774076</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.905329895787</v>
+        <v>1187.905329895788</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>54.02532418115378</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C27" t="n">
-        <v>54.02532418115378</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D27" t="n">
-        <v>54.02532418115378</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E27" t="n">
-        <v>54.02532418115378</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F27" t="n">
-        <v>54.02532418115378</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G27" t="n">
-        <v>54.02532418115378</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H27" t="n">
-        <v>54.02532418115378</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I27" t="n">
-        <v>54.02532418115378</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09690139935929</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K27" t="n">
-        <v>75.10393315911645</v>
+        <v>75.10393315911651</v>
       </c>
       <c r="L27" t="n">
-        <v>193.8402434614216</v>
+        <v>193.8402434614217</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1545813717193</v>
+        <v>377.1545813717194</v>
       </c>
       <c r="N27" t="n">
-        <v>583.7405939045457</v>
+        <v>583.7405939045458</v>
       </c>
       <c r="O27" t="n">
-        <v>716.9793531582077</v>
+        <v>716.9793531582078</v>
       </c>
       <c r="P27" t="n">
-        <v>801.8387022496701</v>
+        <v>801.8387022496702</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.8387022496701</v>
+        <v>801.8387022496702</v>
       </c>
       <c r="R27" t="n">
-        <v>801.8387022496701</v>
+        <v>666.1675444165584</v>
       </c>
       <c r="S27" t="n">
-        <v>608.4351438147106</v>
+        <v>666.1675444165584</v>
       </c>
       <c r="T27" t="n">
-        <v>606.3085779030644</v>
+        <v>664.0409785049121</v>
       </c>
       <c r="U27" t="n">
-        <v>581.6738990923199</v>
+        <v>563.7454763105255</v>
       </c>
       <c r="V27" t="n">
-        <v>553.5833809473962</v>
+        <v>535.6549581656018</v>
       </c>
       <c r="W27" t="n">
-        <v>284.1848116776875</v>
+        <v>266.2563888958932</v>
       </c>
       <c r="X27" t="n">
-        <v>64.67681729438391</v>
+        <v>46.74839451258951</v>
       </c>
       <c r="Y27" t="n">
-        <v>54.02532418115378</v>
+        <v>36.09690139935933</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09690139935929</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09690139935929</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09690139935929</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E28" t="n">
-        <v>106.5484364716651</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F28" t="n">
-        <v>106.5484364716651</v>
+        <v>81.74506019201198</v>
       </c>
       <c r="G28" t="n">
-        <v>106.5484364716651</v>
+        <v>81.74506019201198</v>
       </c>
       <c r="H28" t="n">
-        <v>153.1413751993438</v>
+        <v>128.3379989196906</v>
       </c>
       <c r="I28" t="n">
-        <v>200.81080800395</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="J28" t="n">
-        <v>200.81080800395</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="K28" t="n">
-        <v>200.81080800395</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="L28" t="n">
-        <v>200.81080800395</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="M28" t="n">
-        <v>200.81080800395</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="N28" t="n">
-        <v>200.81080800395</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="O28" t="n">
-        <v>200.81080800395</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="P28" t="n">
-        <v>200.81080800395</v>
+        <v>176.0074317242968</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.2272761573315</v>
+        <v>261.227276157332</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7861757843815</v>
+        <v>270.786175784382</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0555205723502</v>
+        <v>248.0555205723506</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0465672093604</v>
+        <v>237.0465672093607</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4637889634855</v>
+        <v>160.4637889634858</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8681250922511</v>
+        <v>127.8681250922513</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61418656961722</v>
+        <v>49.61418656961739</v>
       </c>
       <c r="X28" t="n">
-        <v>40.4423204521276</v>
+        <v>40.4423204521277</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09690139935929</v>
+        <v>36.09690139935933</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1025.028630475681</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2749037794673</v>
+        <v>886.2749037794682</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0801040922961</v>
+        <v>760.080104092297</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8380797390553</v>
+        <v>599.8380797390562</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5553103571506</v>
+        <v>407.5553103571515</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4879741596815</v>
+        <v>199.4879741596824</v>
       </c>
       <c r="H29" t="n">
         <v>64.07673665504998</v>
@@ -6464,13 +6464,13 @@
         <v>171.8193014227423</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4069368927939</v>
+        <v>377.4069368927937</v>
       </c>
       <c r="L29" t="n">
-        <v>636.745033065327</v>
+        <v>636.7450330653268</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4390162733923</v>
+        <v>930.4390162733921</v>
       </c>
       <c r="N29" t="n">
         <v>1218.633316266261</v>
@@ -6494,19 +6494,19 @@
         <v>1780.6301326302</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.943003976963</v>
+        <v>1742.943003976964</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.811210383807</v>
+        <v>1633.811210383808</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.490850915283</v>
+        <v>1507.490850915284</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.063167740759</v>
+        <v>1359.06316774076</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.905329895787</v>
+        <v>1187.905329895788</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09690139935931</v>
+        <v>249.2591870244203</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09690139935931</v>
+        <v>249.2591870244203</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09690139935931</v>
+        <v>88.47907078545208</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09690139935931</v>
+        <v>88.47907078545208</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09690139935931</v>
+        <v>88.47907078545208</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09690139935931</v>
+        <v>88.47907078545208</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09690139935931</v>
+        <v>88.47907078545208</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09690139935931</v>
+        <v>88.47907078545208</v>
       </c>
       <c r="J30" t="n">
         <v>36.09690139935931</v>
@@ -6564,28 +6564,28 @@
         <v>801.8387022496702</v>
       </c>
       <c r="R30" t="n">
-        <v>666.1675444165584</v>
+        <v>801.8387022496702</v>
       </c>
       <c r="S30" t="n">
-        <v>472.7639859815989</v>
+        <v>801.8387022496702</v>
       </c>
       <c r="T30" t="n">
-        <v>470.6374200699527</v>
+        <v>586.5532407948887</v>
       </c>
       <c r="U30" t="n">
-        <v>446.0027412592081</v>
+        <v>561.9185619841442</v>
       </c>
       <c r="V30" t="n">
-        <v>417.9122231142844</v>
+        <v>533.8280438392205</v>
       </c>
       <c r="W30" t="n">
-        <v>148.5136538445757</v>
+        <v>264.4294745695119</v>
       </c>
       <c r="X30" t="n">
-        <v>46.74839451258944</v>
+        <v>259.9106801376504</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09690139935931</v>
+        <v>249.2591870244203</v>
       </c>
     </row>
     <row r="31">
@@ -6601,46 +6601,46 @@
         <v>36.09690139935931</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09690139935931</v>
+        <v>73.61113529751103</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09690139935931</v>
+        <v>73.61113529751103</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09690139935931</v>
+        <v>73.61113529751103</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09690139935931</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09690139935931</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09690139935931</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="J31" t="n">
-        <v>128.1537097515742</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="K31" t="n">
-        <v>128.1537097515742</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="L31" t="n">
-        <v>128.1537097515742</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="M31" t="n">
-        <v>128.1537097515742</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="N31" t="n">
-        <v>176.0074317242962</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="O31" t="n">
-        <v>176.0074317242962</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="P31" t="n">
-        <v>176.0074317242962</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="Q31" t="n">
-        <v>261.2272761573315</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="R31" t="n">
         <v>270.7861757843815</v>
@@ -6698,13 +6698,13 @@
         <v>36.09690139935931</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8193014227425</v>
+        <v>171.8193014227423</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4069368927944</v>
+        <v>377.4069368927942</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7450330653274</v>
+        <v>636.7450330653273</v>
       </c>
       <c r="M32" t="n">
         <v>930.4390162733927</v>
@@ -6716,7 +6716,7 @@
         <v>1465.600235789997</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.107239204596</v>
+        <v>1663.107239204595</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.308055083433</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>283.8822296406202</v>
+        <v>323.4665072868156</v>
       </c>
       <c r="C33" t="n">
-        <v>283.8822296406202</v>
+        <v>323.4665072868156</v>
       </c>
       <c r="D33" t="n">
-        <v>283.8822296406202</v>
+        <v>323.4665072868156</v>
       </c>
       <c r="E33" t="n">
-        <v>283.8822296406202</v>
+        <v>323.4665072868156</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7195513261656</v>
+        <v>163.0387910040596</v>
       </c>
       <c r="G33" t="n">
-        <v>88.47907078545208</v>
+        <v>163.0387910040596</v>
       </c>
       <c r="H33" t="n">
-        <v>88.47907078545208</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="I33" t="n">
-        <v>88.47907078545208</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="J33" t="n">
         <v>36.09690139935931</v>
@@ -6798,31 +6798,31 @@
         <v>801.8387022496702</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.8387022496702</v>
+        <v>795.7416638386852</v>
       </c>
       <c r="R33" t="n">
-        <v>801.8387022496702</v>
+        <v>795.7416638386852</v>
       </c>
       <c r="S33" t="n">
-        <v>801.8387022496702</v>
+        <v>795.7416638386852</v>
       </c>
       <c r="T33" t="n">
-        <v>799.7121363380239</v>
+        <v>793.615097927039</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0774575272793</v>
+        <v>768.9804191162943</v>
       </c>
       <c r="V33" t="n">
-        <v>746.9869393823556</v>
+        <v>608.0353641016159</v>
       </c>
       <c r="W33" t="n">
-        <v>477.5883701126469</v>
+        <v>338.6367948319072</v>
       </c>
       <c r="X33" t="n">
-        <v>473.0695756807854</v>
+        <v>334.1180004000457</v>
       </c>
       <c r="Y33" t="n">
-        <v>462.4180825675552</v>
+        <v>323.4665072868156</v>
       </c>
     </row>
     <row r="34">
@@ -6838,43 +6838,43 @@
         <v>36.09690139935931</v>
       </c>
       <c r="D34" t="n">
-        <v>103.0769925235642</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="E34" t="n">
-        <v>103.0769925235642</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="F34" t="n">
-        <v>176.2502939997105</v>
+        <v>40.24805693657964</v>
       </c>
       <c r="G34" t="n">
-        <v>176.2502939997105</v>
+        <v>83.95062337208154</v>
       </c>
       <c r="H34" t="n">
-        <v>176.2502939997105</v>
+        <v>83.95062337208154</v>
       </c>
       <c r="I34" t="n">
-        <v>223.9197268043167</v>
+        <v>83.95062337208154</v>
       </c>
       <c r="J34" t="n">
-        <v>223.9197268043167</v>
+        <v>176.0074317242965</v>
       </c>
       <c r="K34" t="n">
-        <v>261.2272761573317</v>
+        <v>176.0074317242965</v>
       </c>
       <c r="L34" t="n">
-        <v>261.2272761573317</v>
+        <v>176.0074317242965</v>
       </c>
       <c r="M34" t="n">
-        <v>261.2272761573317</v>
+        <v>176.0074317242965</v>
       </c>
       <c r="N34" t="n">
-        <v>261.2272761573317</v>
+        <v>176.0074317242965</v>
       </c>
       <c r="O34" t="n">
-        <v>261.2272761573317</v>
+        <v>176.0074317242965</v>
       </c>
       <c r="P34" t="n">
-        <v>261.2272761573317</v>
+        <v>176.0074317242965</v>
       </c>
       <c r="Q34" t="n">
         <v>261.2272761573317</v>
@@ -6914,13 +6914,13 @@
         <v>847.8611162930804</v>
       </c>
       <c r="C35" t="n">
-        <v>733.4247863879052</v>
+        <v>733.4247863879053</v>
       </c>
       <c r="D35" t="n">
-        <v>631.5473834917723</v>
+        <v>631.5473834917724</v>
       </c>
       <c r="E35" t="n">
-        <v>495.6227559295698</v>
+        <v>495.6227559295699</v>
       </c>
       <c r="F35" t="n">
         <v>327.6573833387034</v>
@@ -6929,43 +6929,43 @@
         <v>143.9074439322726</v>
       </c>
       <c r="H35" t="n">
-        <v>32.81360321867977</v>
+        <v>32.8136032186798</v>
       </c>
       <c r="I35" t="n">
         <v>29.15116475402739</v>
       </c>
       <c r="J35" t="n">
-        <v>188.707045372307</v>
+        <v>188.7070453723071</v>
       </c>
       <c r="K35" t="n">
-        <v>188.707045372307</v>
+        <v>418.1281614372556</v>
       </c>
       <c r="L35" t="n">
-        <v>471.8786221397368</v>
+        <v>466.7553427373801</v>
       </c>
       <c r="M35" t="n">
-        <v>789.4060859426987</v>
+        <v>674.5952753945692</v>
       </c>
       <c r="N35" t="n">
-        <v>1101.433866530464</v>
+        <v>986.6230559823344</v>
       </c>
       <c r="O35" t="n">
-        <v>1226.639906340142</v>
+        <v>1022.879060633662</v>
       </c>
       <c r="P35" t="n">
-        <v>1447.980390349637</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="Q35" t="n">
-        <v>1447.980390349637</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R35" t="n">
-        <v>1447.980390349637</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S35" t="n">
-        <v>1457.558237701369</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T35" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U35" t="n">
         <v>1444.188505839171</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>287.6124806428001</v>
+        <v>81.53333414012016</v>
       </c>
       <c r="C36" t="n">
-        <v>287.6124806428001</v>
+        <v>81.53333414012016</v>
       </c>
       <c r="D36" t="n">
-        <v>287.6124806428001</v>
+        <v>81.53333414012016</v>
       </c>
       <c r="E36" t="n">
-        <v>287.6124806428001</v>
+        <v>81.53333414012016</v>
       </c>
       <c r="F36" t="n">
-        <v>287.6124806428001</v>
+        <v>81.53333414012016</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3720001020865</v>
+        <v>81.53333414012016</v>
       </c>
       <c r="H36" t="n">
-        <v>137.3720001020865</v>
+        <v>81.53333414012016</v>
       </c>
       <c r="I36" t="n">
-        <v>29.15116475402739</v>
+        <v>81.53333414012016</v>
       </c>
       <c r="J36" t="n">
         <v>29.15116475402739</v>
@@ -7026,40 +7026,40 @@
         <v>370.2088447263874</v>
       </c>
       <c r="N36" t="n">
-        <v>576.7948572592138</v>
+        <v>576.7948572592139</v>
       </c>
       <c r="O36" t="n">
-        <v>710.0336165128758</v>
+        <v>710.0336165128759</v>
       </c>
       <c r="P36" t="n">
-        <v>794.8929656043382</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="Q36" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933534</v>
       </c>
       <c r="R36" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933534</v>
       </c>
       <c r="S36" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933534</v>
       </c>
       <c r="T36" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933534</v>
       </c>
       <c r="U36" t="n">
-        <v>555.2690868421514</v>
+        <v>788.478645173647</v>
       </c>
       <c r="V36" t="n">
-        <v>551.4959654882661</v>
+        <v>545.3989270772811</v>
       </c>
       <c r="W36" t="n">
-        <v>521.4039929610378</v>
+        <v>301.0413285234238</v>
       </c>
       <c r="X36" t="n">
-        <v>513.2531737074723</v>
+        <v>81.53333414012016</v>
       </c>
       <c r="Y36" t="n">
-        <v>287.6124806428001</v>
+        <v>81.53333414012016</v>
       </c>
     </row>
     <row r="37">
@@ -7108,7 +7108,7 @@
         <v>29.15116475402739</v>
       </c>
       <c r="O37" t="n">
-        <v>29.15116475402739</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="P37" t="n">
         <v>143.6313550206557</v>
@@ -7126,10 +7126,10 @@
         <v>143.6313550206557</v>
       </c>
       <c r="U37" t="n">
-        <v>91.36597356581912</v>
+        <v>91.36597356581919</v>
       </c>
       <c r="V37" t="n">
-        <v>83.08770648562296</v>
+        <v>83.087706485623</v>
       </c>
       <c r="W37" t="n">
         <v>29.15116475402739</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>847.8611162930803</v>
+        <v>847.8611162930808</v>
       </c>
       <c r="C38" t="n">
-        <v>733.4247863879054</v>
+        <v>733.4247863879059</v>
       </c>
       <c r="D38" t="n">
-        <v>631.5473834917725</v>
+        <v>631.547383491773</v>
       </c>
       <c r="E38" t="n">
-        <v>495.6227559295701</v>
+        <v>495.6227559295705</v>
       </c>
       <c r="F38" t="n">
-        <v>327.657383338704</v>
+        <v>327.6573833387042</v>
       </c>
       <c r="G38" t="n">
-        <v>143.9074439322735</v>
+        <v>143.9074439322736</v>
       </c>
       <c r="H38" t="n">
-        <v>32.81360321867979</v>
+        <v>32.81360321867983</v>
       </c>
       <c r="I38" t="n">
         <v>29.15116475402739</v>
@@ -7178,34 +7178,34 @@
         <v>418.1281614372556</v>
       </c>
       <c r="L38" t="n">
-        <v>701.2997382046854</v>
+        <v>591.6122070589122</v>
       </c>
       <c r="M38" t="n">
-        <v>909.1396708618738</v>
+        <v>674.5952753945691</v>
       </c>
       <c r="N38" t="n">
-        <v>986.623055982334</v>
+        <v>752.0786605150292</v>
       </c>
       <c r="O38" t="n">
-        <v>1022.879060633661</v>
+        <v>1022.879060633662</v>
       </c>
       <c r="P38" t="n">
-        <v>1244.219544643156</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="Q38" t="n">
-        <v>1391.25384111689</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R38" t="n">
         <v>1433.62433659632</v>
       </c>
       <c r="S38" t="n">
-        <v>1443.202183948052</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T38" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U38" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V38" t="n">
         <v>1359.374109037054</v>
@@ -7214,10 +7214,10 @@
         <v>1257.371146359568</v>
       </c>
       <c r="X38" t="n">
-        <v>1133.260859976082</v>
+        <v>1133.260859976083</v>
       </c>
       <c r="Y38" t="n">
-        <v>986.4204189221487</v>
+        <v>986.4204189221492</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>421.18608894787</v>
+        <v>471.362920263428</v>
       </c>
       <c r="C39" t="n">
-        <v>231.7738146808337</v>
+        <v>471.362920263428</v>
       </c>
       <c r="D39" t="n">
-        <v>231.7738146808337</v>
+        <v>471.362920263428</v>
       </c>
       <c r="E39" t="n">
-        <v>231.7738146808337</v>
+        <v>297.7997163848424</v>
       </c>
       <c r="F39" t="n">
-        <v>231.7738146808337</v>
+        <v>137.3720001020865</v>
       </c>
       <c r="G39" t="n">
-        <v>81.53333414012015</v>
+        <v>137.3720001020865</v>
       </c>
       <c r="H39" t="n">
-        <v>81.53333414012015</v>
+        <v>137.3720001020865</v>
       </c>
       <c r="I39" t="n">
-        <v>81.53333414012015</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J39" t="n">
         <v>29.15116475402739</v>
@@ -7263,40 +7263,40 @@
         <v>370.2088447263874</v>
       </c>
       <c r="N39" t="n">
-        <v>576.7948572592138</v>
+        <v>576.7948572592139</v>
       </c>
       <c r="O39" t="n">
-        <v>710.0336165128758</v>
+        <v>710.0336165128759</v>
       </c>
       <c r="P39" t="n">
-        <v>794.8929656043382</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="Q39" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933534</v>
       </c>
       <c r="R39" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933534</v>
       </c>
       <c r="S39" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933534</v>
       </c>
       <c r="T39" t="n">
-        <v>794.8929656043382</v>
+        <v>788.7959271933534</v>
       </c>
       <c r="U39" t="n">
-        <v>555.2690868421514</v>
+        <v>788.478645173647</v>
       </c>
       <c r="V39" t="n">
-        <v>551.4959654882659</v>
+        <v>784.7055238197615</v>
       </c>
       <c r="W39" t="n">
-        <v>521.4039929610377</v>
+        <v>697.0036133281003</v>
       </c>
       <c r="X39" t="n">
-        <v>421.18608894787</v>
+        <v>697.0036133281003</v>
       </c>
       <c r="Y39" t="n">
-        <v>421.18608894787</v>
+        <v>471.362920263428</v>
       </c>
     </row>
     <row r="40">
@@ -7342,31 +7342,31 @@
         <v>29.15116475402739</v>
       </c>
       <c r="N40" t="n">
-        <v>143.6313550206557</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="O40" t="n">
-        <v>143.6313550206557</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="P40" t="n">
-        <v>143.6313550206557</v>
+        <v>34.57802999272396</v>
       </c>
       <c r="Q40" t="n">
-        <v>143.6313550206557</v>
+        <v>143.6313550206559</v>
       </c>
       <c r="R40" t="n">
-        <v>143.6313550206557</v>
+        <v>143.6313550206559</v>
       </c>
       <c r="S40" t="n">
-        <v>143.6313550206557</v>
+        <v>143.6313550206559</v>
       </c>
       <c r="T40" t="n">
-        <v>143.6313550206557</v>
+        <v>143.6313550206559</v>
       </c>
       <c r="U40" t="n">
-        <v>91.36597356581917</v>
+        <v>91.36597356581925</v>
       </c>
       <c r="V40" t="n">
-        <v>83.08770648562299</v>
+        <v>83.08770648562303</v>
       </c>
       <c r="W40" t="n">
         <v>29.15116475402739</v>
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>847.8611162930811</v>
+        <v>847.8611162930815</v>
       </c>
       <c r="C41" t="n">
-        <v>733.4247863879062</v>
+        <v>733.4247863879065</v>
       </c>
       <c r="D41" t="n">
-        <v>631.5473834917734</v>
+        <v>631.5473834917736</v>
       </c>
       <c r="E41" t="n">
-        <v>495.622755929571</v>
+        <v>495.6227559295713</v>
       </c>
       <c r="F41" t="n">
-        <v>327.6573833387047</v>
+        <v>327.6573833387049</v>
       </c>
       <c r="G41" t="n">
-        <v>143.9074439322733</v>
+        <v>143.9074439322742</v>
       </c>
       <c r="H41" t="n">
-        <v>32.81360321867968</v>
+        <v>32.81360321867969</v>
       </c>
       <c r="I41" t="n">
         <v>29.15116475402739</v>
       </c>
       <c r="J41" t="n">
-        <v>188.7070453723071</v>
+        <v>188.7070453723072</v>
       </c>
       <c r="K41" t="n">
         <v>418.1281614372558</v>
       </c>
       <c r="L41" t="n">
-        <v>701.2997382046856</v>
+        <v>615.5461081639612</v>
       </c>
       <c r="M41" t="n">
-        <v>784.2828065403423</v>
+        <v>698.5291764996181</v>
       </c>
       <c r="N41" t="n">
-        <v>1096.310587128108</v>
+        <v>776.0125616200783</v>
       </c>
       <c r="O41" t="n">
-        <v>1367.11098724674</v>
+        <v>1046.812961738711</v>
       </c>
       <c r="P41" t="n">
-        <v>1433.62433659632</v>
+        <v>1268.153445748206</v>
       </c>
       <c r="Q41" t="n">
-        <v>1433.62433659632</v>
+        <v>1415.18774222194</v>
       </c>
       <c r="R41" t="n">
-        <v>1433.62433659632</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="S41" t="n">
-        <v>1443.202183948052</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="T41" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U41" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V41" t="n">
         <v>1359.374109037054</v>
@@ -7454,7 +7454,7 @@
         <v>1133.260859976083</v>
       </c>
       <c r="Y41" t="n">
-        <v>986.4204189221493</v>
+        <v>986.4204189221498</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.15116475402739</v>
+        <v>378.9911553038196</v>
       </c>
       <c r="C42" t="n">
-        <v>29.15116475402739</v>
+        <v>189.5788810367833</v>
       </c>
       <c r="D42" t="n">
-        <v>29.15116475402739</v>
+        <v>189.5788810367833</v>
       </c>
       <c r="E42" t="n">
-        <v>29.15116475402739</v>
+        <v>189.5788810367833</v>
       </c>
       <c r="F42" t="n">
         <v>29.15116475402739</v>
@@ -7500,40 +7500,40 @@
         <v>370.2088447263874</v>
       </c>
       <c r="N42" t="n">
-        <v>576.7948572592138</v>
+        <v>576.7948572592139</v>
       </c>
       <c r="O42" t="n">
-        <v>710.0336165128758</v>
+        <v>710.0336165128759</v>
       </c>
       <c r="P42" t="n">
-        <v>794.8929656043382</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="Q42" t="n">
-        <v>794.8929656043382</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="R42" t="n">
-        <v>659.2218077712264</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="S42" t="n">
-        <v>659.2218077712264</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="T42" t="n">
-        <v>659.2218077712264</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="U42" t="n">
-        <v>480.8587083045564</v>
+        <v>794.5756835846322</v>
       </c>
       <c r="V42" t="n">
-        <v>477.0855869506711</v>
+        <v>790.8025622307468</v>
       </c>
       <c r="W42" t="n">
-        <v>207.6870176809625</v>
+        <v>760.7105897035187</v>
       </c>
       <c r="X42" t="n">
-        <v>207.6870176809625</v>
+        <v>541.2025953202151</v>
       </c>
       <c r="Y42" t="n">
-        <v>207.6870176809625</v>
+        <v>378.9911553038196</v>
       </c>
     </row>
     <row r="43">
@@ -7570,19 +7570,19 @@
         <v>29.15116475402739</v>
       </c>
       <c r="K43" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="L43" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="M43" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="N43" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="O43" t="n">
-        <v>143.6313550206554</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="P43" t="n">
         <v>143.6313550206554</v>
@@ -7600,10 +7600,10 @@
         <v>143.6313550206554</v>
       </c>
       <c r="U43" t="n">
-        <v>91.36597356581895</v>
+        <v>91.36597356581896</v>
       </c>
       <c r="V43" t="n">
-        <v>83.08770648562287</v>
+        <v>83.08770648562289</v>
       </c>
       <c r="W43" t="n">
         <v>29.15116475402739</v>
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>847.8611162930812</v>
+        <v>847.8611162930811</v>
       </c>
       <c r="C44" t="n">
-        <v>733.4247863879066</v>
+        <v>733.4247863879064</v>
       </c>
       <c r="D44" t="n">
-        <v>631.5473834917736</v>
+        <v>631.5473834917734</v>
       </c>
       <c r="E44" t="n">
         <v>495.6227559295709</v>
@@ -7640,43 +7640,43 @@
         <v>143.9074439322737</v>
       </c>
       <c r="H44" t="n">
-        <v>32.81360321867971</v>
+        <v>32.81360321867975</v>
       </c>
       <c r="I44" t="n">
         <v>29.15116475402739</v>
       </c>
       <c r="J44" t="n">
-        <v>29.15116475402739</v>
+        <v>79.01951422653346</v>
       </c>
       <c r="K44" t="n">
-        <v>29.15116475402739</v>
+        <v>308.4406302914821</v>
       </c>
       <c r="L44" t="n">
-        <v>279.1355599497675</v>
+        <v>591.6122070589118</v>
       </c>
       <c r="M44" t="n">
-        <v>596.6630237527295</v>
+        <v>674.5952753945687</v>
       </c>
       <c r="N44" t="n">
-        <v>908.6908043404949</v>
+        <v>986.6230559823341</v>
       </c>
       <c r="O44" t="n">
-        <v>1179.491204459128</v>
+        <v>1022.879060633662</v>
       </c>
       <c r="P44" t="n">
-        <v>1400.831688468623</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="Q44" t="n">
-        <v>1400.831688468623</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R44" t="n">
-        <v>1443.202183948052</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S44" t="n">
-        <v>1443.202183948052</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T44" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U44" t="n">
         <v>1444.188505839172</v>
@@ -7691,7 +7691,7 @@
         <v>1133.260859976083</v>
       </c>
       <c r="Y44" t="n">
-        <v>986.4204189221495</v>
+        <v>986.4204189221493</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.53333414012015</v>
+        <v>179.391645294741</v>
       </c>
       <c r="C45" t="n">
-        <v>81.53333414012015</v>
+        <v>179.391645294741</v>
       </c>
       <c r="D45" t="n">
-        <v>81.53333414012015</v>
+        <v>179.391645294741</v>
       </c>
       <c r="E45" t="n">
-        <v>81.53333414012015</v>
+        <v>179.391645294741</v>
       </c>
       <c r="F45" t="n">
-        <v>81.53333414012015</v>
+        <v>179.391645294741</v>
       </c>
       <c r="G45" t="n">
-        <v>81.53333414012015</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H45" t="n">
-        <v>81.53333414012015</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I45" t="n">
-        <v>81.53333414012015</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J45" t="n">
         <v>29.15116475402739</v>
@@ -7737,40 +7737,40 @@
         <v>370.2088447263874</v>
       </c>
       <c r="N45" t="n">
-        <v>576.7948572592138</v>
+        <v>576.7948572592139</v>
       </c>
       <c r="O45" t="n">
-        <v>710.0336165128758</v>
+        <v>710.0336165128759</v>
       </c>
       <c r="P45" t="n">
-        <v>794.8929656043382</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="Q45" t="n">
-        <v>794.8929656043382</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="R45" t="n">
-        <v>772.864756452836</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="S45" t="n">
-        <v>772.864756452836</v>
+        <v>794.8929656043383</v>
       </c>
       <c r="T45" t="n">
-        <v>772.864756452836</v>
+        <v>577.7771997412499</v>
       </c>
       <c r="U45" t="n">
-        <v>533.2408776906492</v>
+        <v>577.4599177215437</v>
       </c>
       <c r="V45" t="n">
-        <v>529.4677563367638</v>
+        <v>435.1243108866415</v>
       </c>
       <c r="W45" t="n">
-        <v>260.0691870670552</v>
+        <v>405.0323383594133</v>
       </c>
       <c r="X45" t="n">
-        <v>260.0691870670552</v>
+        <v>405.0323383594133</v>
       </c>
       <c r="Y45" t="n">
-        <v>260.0691870670552</v>
+        <v>179.391645294741</v>
       </c>
     </row>
     <row r="46">
@@ -7807,40 +7807,40 @@
         <v>29.15116475402739</v>
       </c>
       <c r="K46" t="n">
-        <v>29.15116475402739</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="L46" t="n">
-        <v>29.15116475402739</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="M46" t="n">
-        <v>29.15116475402739</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="N46" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="P46" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="R46" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="S46" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="T46" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206556</v>
       </c>
       <c r="U46" t="n">
-        <v>91.365973565819</v>
+        <v>91.36597356581908</v>
       </c>
       <c r="V46" t="n">
-        <v>83.0877064856229</v>
+        <v>83.08770648562295</v>
       </c>
       <c r="W46" t="n">
         <v>29.15116475402739</v>
@@ -8772,16 +8772,16 @@
         <v>131.9724314025781</v>
       </c>
       <c r="L12" t="n">
-        <v>207.1905848512652</v>
+        <v>204.7878308834408</v>
       </c>
       <c r="M12" t="n">
-        <v>116.6108834208104</v>
+        <v>203.4325914874593</v>
       </c>
       <c r="N12" t="n">
-        <v>188.7628267091238</v>
+        <v>101.9411186424747</v>
       </c>
       <c r="O12" t="n">
-        <v>205.0571316834165</v>
+        <v>207.4598856512404</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9009,19 +9009,19 @@
         <v>131.9724314025781</v>
       </c>
       <c r="L15" t="n">
-        <v>207.1905848512652</v>
+        <v>207.190584851265</v>
       </c>
       <c r="M15" t="n">
-        <v>203.4325914874595</v>
+        <v>116.6108834208104</v>
       </c>
       <c r="N15" t="n">
-        <v>185.2548789084511</v>
+        <v>186.3600727412995</v>
       </c>
       <c r="O15" t="n">
-        <v>207.4598856512405</v>
+        <v>207.4598856512404</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6473598448789</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9246,19 +9246,19 @@
         <v>131.9724314025781</v>
       </c>
       <c r="L18" t="n">
-        <v>204.7878308834412</v>
+        <v>207.190584851265</v>
       </c>
       <c r="M18" t="n">
-        <v>203.4325914874595</v>
+        <v>203.4325914874593</v>
       </c>
       <c r="N18" t="n">
-        <v>188.7628267091238</v>
+        <v>188.7628267091237</v>
       </c>
       <c r="O18" t="n">
-        <v>120.6381775845915</v>
+        <v>203.9519378505677</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6473598448789</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,19 +9483,19 @@
         <v>131.9724314025781</v>
       </c>
       <c r="L21" t="n">
-        <v>207.1905848512652</v>
+        <v>207.190584851265</v>
       </c>
       <c r="M21" t="n">
         <v>116.6108834208104</v>
       </c>
       <c r="N21" t="n">
-        <v>188.7628267091238</v>
+        <v>186.3600727412995</v>
       </c>
       <c r="O21" t="n">
-        <v>207.4598856512405</v>
+        <v>207.4598856512404</v>
       </c>
       <c r="P21" t="n">
-        <v>203.9611201108553</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9720,16 +9720,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>165.3867887018683</v>
+        <v>165.386788701868</v>
       </c>
       <c r="M24" t="n">
-        <v>116.6108834208104</v>
+        <v>203.4325914874593</v>
       </c>
       <c r="N24" t="n">
-        <v>188.7628267091238</v>
+        <v>188.7628267091237</v>
       </c>
       <c r="O24" t="n">
-        <v>207.4598856512405</v>
+        <v>120.6381775845915</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.5982413551471</v>
+        <v>170.5982413551469</v>
       </c>
       <c r="C11" t="n">
-        <v>146.7164983584926</v>
+        <v>59.89479029184349</v>
       </c>
       <c r="D11" t="n">
-        <v>134.283160619541</v>
+        <v>47.46145255289196</v>
       </c>
       <c r="E11" t="n">
-        <v>167.9899130389499</v>
+        <v>167.9899130389498</v>
       </c>
       <c r="F11" t="n">
-        <v>199.7102506173272</v>
+        <v>199.7102506173271</v>
       </c>
       <c r="G11" t="n">
-        <v>128.5152636980868</v>
+        <v>181.5378171225019</v>
       </c>
       <c r="H11" t="n">
-        <v>56.58572599217823</v>
+        <v>143.4074340588272</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>37.05034583237517</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.66056629594539</v>
+        <v>46.66056629594524</v>
       </c>
       <c r="V11" t="n">
-        <v>117.3907845864658</v>
+        <v>117.3907845864656</v>
       </c>
       <c r="W11" t="n">
-        <v>50.83694792657311</v>
+        <v>47.58575673643156</v>
       </c>
       <c r="X11" t="n">
-        <v>156.2937152720199</v>
+        <v>156.2937152720197</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.7965683957636</v>
+        <v>178.7965683957635</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.5982413551471</v>
+        <v>170.5982413551469</v>
       </c>
       <c r="C14" t="n">
-        <v>146.7164983584926</v>
+        <v>146.7164983584924</v>
       </c>
       <c r="D14" t="n">
-        <v>134.283160619541</v>
+        <v>47.46145255289196</v>
       </c>
       <c r="E14" t="n">
-        <v>167.9899130389499</v>
+        <v>167.9899130389498</v>
       </c>
       <c r="F14" t="n">
-        <v>112.8885425506782</v>
+        <v>199.7102506173271</v>
       </c>
       <c r="G14" t="n">
         <v>128.5152636980868</v>
       </c>
       <c r="H14" t="n">
-        <v>56.58572599217823</v>
+        <v>106.4974834782648</v>
       </c>
       <c r="I14" t="n">
-        <v>37.05034583237531</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.74993846779111</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.92346735507959</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.66056629594539</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>117.3907845864658</v>
+        <v>117.3907845864656</v>
       </c>
       <c r="W14" t="n">
-        <v>134.4074648030806</v>
+        <v>134.4074648030805</v>
       </c>
       <c r="X14" t="n">
-        <v>79.8211548069154</v>
+        <v>156.2937152720197</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.7965683957636</v>
+        <v>178.7965683957635</v>
       </c>
     </row>
     <row r="15">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-3.762439867759568e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.539835505416704e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286627.8984323494</v>
+        <v>286627.8984323496</v>
       </c>
       <c r="C2" t="n">
         <v>286627.8984323495</v>
@@ -26320,13 +26320,13 @@
         <v>286627.8984323496</v>
       </c>
       <c r="E2" t="n">
+        <v>246996.7789316557</v>
+      </c>
+      <c r="F2" t="n">
         <v>246996.7789316558</v>
       </c>
-      <c r="F2" t="n">
-        <v>246996.7789316559</v>
-      </c>
       <c r="G2" t="n">
-        <v>287208.5283790244</v>
+        <v>287208.5283790242</v>
       </c>
       <c r="H2" t="n">
         <v>287208.5283790244</v>
@@ -26338,19 +26338,19 @@
         <v>287208.5283790245</v>
       </c>
       <c r="K2" t="n">
+        <v>287208.5283790245</v>
+      </c>
+      <c r="L2" t="n">
         <v>287208.5283790244</v>
       </c>
-      <c r="L2" t="n">
-        <v>287208.5283790243</v>
-      </c>
       <c r="M2" t="n">
-        <v>287208.5283790248</v>
+        <v>287208.5283790246</v>
       </c>
       <c r="N2" t="n">
-        <v>287208.5283790248</v>
+        <v>287208.5283790246</v>
       </c>
       <c r="O2" t="n">
-        <v>287208.5283790246</v>
+        <v>287208.5283790247</v>
       </c>
       <c r="P2" t="n">
         <v>287208.5283790246</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272434.2066155724</v>
+        <v>272434.2066155726</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>104848.2026895067</v>
+        <v>104848.2026895066</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160763.5855583197</v>
+        <v>160763.58555832</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>104848.2026895067</v>
+        <v>104848.2026895066</v>
       </c>
       <c r="M3" t="n">
-        <v>19259.37825850235</v>
+        <v>19259.37825850233</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65423.24367203562</v>
+        <v>65423.24367203571</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,10 +26427,10 @@
         <v>372146.5274278299</v>
       </c>
       <c r="F4" t="n">
-        <v>372146.5274278299</v>
+        <v>372146.52742783</v>
       </c>
       <c r="G4" t="n">
-        <v>442672.8937875656</v>
+        <v>442672.8937875655</v>
       </c>
       <c r="H4" t="n">
         <v>442672.8937875655</v>
@@ -26439,7 +26439,7 @@
         <v>442672.8937875655</v>
       </c>
       <c r="J4" t="n">
-        <v>442256.8076974517</v>
+        <v>442256.8076974518</v>
       </c>
       <c r="K4" t="n">
         <v>442256.8076974518</v>
@@ -26491,7 +26491,7 @@
         <v>35675.68646773272</v>
       </c>
       <c r="J5" t="n">
-        <v>47598.53836228576</v>
+        <v>47598.53836228578</v>
       </c>
       <c r="K5" t="n">
         <v>47598.53836228577</v>
@@ -26506,10 +26506,10 @@
         <v>44343.67435035105</v>
       </c>
       <c r="O5" t="n">
+        <v>44343.67435035107</v>
+      </c>
+      <c r="P5" t="n">
         <v>44343.67435035106</v>
-      </c>
-      <c r="P5" t="n">
-        <v>44343.67435035105</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-224830.3650979259</v>
+        <v>-224834.831482131</v>
       </c>
       <c r="C6" t="n">
-        <v>-224830.3650979259</v>
+        <v>-224834.831482131</v>
       </c>
       <c r="D6" t="n">
-        <v>-224830.3650979258</v>
+        <v>-224834.831482131</v>
       </c>
       <c r="E6" t="n">
-        <v>-422241.5371395991</v>
+        <v>-422550.8582891944</v>
       </c>
       <c r="F6" t="n">
-        <v>-149807.3305240266</v>
+        <v>-150116.651673622</v>
       </c>
       <c r="G6" t="n">
         <v>-295988.2545657806</v>
       </c>
       <c r="H6" t="n">
-        <v>-191140.0518762739</v>
+        <v>-191140.0518762738</v>
       </c>
       <c r="I6" t="n">
-        <v>-191140.0518762739</v>
+        <v>-191140.0518762738</v>
       </c>
       <c r="J6" t="n">
-        <v>-363410.4032390327</v>
+        <v>-363410.403239033</v>
       </c>
       <c r="K6" t="n">
         <v>-202646.8176807131</v>
       </c>
       <c r="L6" t="n">
-        <v>-307495.02037022</v>
+        <v>-307495.0203702198</v>
       </c>
       <c r="M6" t="n">
-        <v>-218261.9970568088</v>
+        <v>-218261.9970568089</v>
       </c>
       <c r="N6" t="n">
-        <v>-199002.6187983064</v>
+        <v>-199002.6187983066</v>
       </c>
       <c r="O6" t="n">
         <v>-264425.8624703423</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F2" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G2" t="n">
         <v>334.5492523845696</v>
@@ -26707,7 +26707,7 @@
         <v>334.5492523845696</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="K2" t="n">
         <v>212.8393079519278</v>
@@ -26719,13 +26719,13 @@
         <v>236.9135307750557</v>
       </c>
       <c r="N2" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="O2" t="n">
         <v>236.9135307750558</v>
       </c>
       <c r="P2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="3">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="F4" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="G4" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="H4" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="I4" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2112674919911</v>
+        <v>451.2112674919916</v>
       </c>
       <c r="K4" t="n">
         <v>451.2112674919914</v>
@@ -26820,16 +26820,16 @@
         <v>451.2112674919914</v>
       </c>
       <c r="M4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253424</v>
       </c>
       <c r="N4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253424</v>
       </c>
       <c r="O4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253424</v>
       </c>
       <c r="P4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253424</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.0602533618834</v>
+        <v>131.0602533618832</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.77905459004441</v>
+        <v>81.7790545900445</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>131.0602533618834</v>
+        <v>131.0602533618832</v>
       </c>
       <c r="M2" t="n">
-        <v>24.07422282312794</v>
+        <v>24.07422282312791</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004452</v>
+        <v>81.77905459004464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.389559425342</v>
+        <v>364.3895594253427</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.0602533618834</v>
+        <v>131.0602533618832</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004441</v>
+        <v>81.7790545900445</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="C11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="D11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="E11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="H11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="I11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="J11" t="n">
-        <v>162.5676826616243</v>
+        <v>75.74597459497522</v>
       </c>
       <c r="K11" t="n">
-        <v>5.175029699350063</v>
+        <v>5.175029699350056</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5735953153437805</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>8.555662490426656</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.33728430081824</v>
+        <v>13.33728430081823</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.3940393874457</v>
+        <v>174.9710567299818</v>
       </c>
       <c r="R11" t="n">
-        <v>194.1150504928036</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="S11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="T11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>100.696443457717</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85834769223183</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.036068026875125</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>116.5704958799635</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S12" t="n">
-        <v>104.6478147839608</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T12" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U12" t="n">
-        <v>150.4059319079158</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V12" t="n">
-        <v>203.4889990226862</v>
+        <v>190.5563972522053</v>
       </c>
       <c r="W12" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X12" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="13">
@@ -28248,19 +28248,19 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>174.0927976415234</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6953014514208</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="H13" t="n">
         <v>165.7757334795251</v>
@@ -28269,52 +28269,52 @@
         <v>164.6883657250528</v>
       </c>
       <c r="J13" t="n">
-        <v>173.3198543428769</v>
+        <v>119.8526328486804</v>
       </c>
       <c r="K13" t="n">
-        <v>153.2157698435604</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L13" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M13" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N13" t="n">
-        <v>102.5042743723751</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O13" t="n">
         <v>36.70523308254135</v>
       </c>
       <c r="P13" t="n">
-        <v>57.81660688993937</v>
+        <v>57.81660688993936</v>
       </c>
       <c r="Q13" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="R13" t="n">
         <v>203.1838537831904</v>
       </c>
       <c r="S13" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="T13" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U13" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V13" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W13" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X13" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y13" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="C14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="D14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="E14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="H14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="I14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74597459497524</v>
+        <v>162.3229919375113</v>
       </c>
       <c r="K14" t="n">
-        <v>5.175029699350063</v>
+        <v>5.175029699350056</v>
       </c>
       <c r="L14" t="n">
-        <v>37.7033431170283</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>3.00042691952099</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5.047714689753974</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>50.19948114611628</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.33728430081824</v>
+        <v>13.33728430081823</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.3940393874457</v>
+        <v>88.39403938744569</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1150504928036</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="S14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="T14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="15">
@@ -28421,13 +28421,13 @@
         <v>148.7380757353064</v>
       </c>
       <c r="H15" t="n">
-        <v>125.6724707086533</v>
+        <v>38.8507626420044</v>
       </c>
       <c r="I15" t="n">
         <v>107.1386269945785</v>
       </c>
       <c r="J15" t="n">
-        <v>51.85834769223183</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.036068026875125</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3144462547807</v>
+        <v>121.3818444842996</v>
       </c>
       <c r="S15" t="n">
-        <v>106.8185899442379</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T15" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U15" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V15" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W15" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X15" t="n">
-        <v>130.4912063728215</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>203.4889990226862</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>171.9364580696987</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>203.4889990226862</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>203.4889990226862</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.6953014514208</v>
       </c>
       <c r="H16" t="n">
-        <v>203.4889990226862</v>
+        <v>165.7757334795251</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6883657250528</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8526328486804</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="K16" t="n">
-        <v>153.2157698435604</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L16" t="n">
-        <v>31.33805968349144</v>
+        <v>118.1597677501404</v>
       </c>
       <c r="M16" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N16" t="n">
         <v>15.68256630572602</v>
       </c>
       <c r="O16" t="n">
-        <v>36.70523308254135</v>
+        <v>54.55716317174631</v>
       </c>
       <c r="P16" t="n">
-        <v>57.81660688993937</v>
+        <v>57.81660688993936</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.7586570094679</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="R16" t="n">
-        <v>203.4889990226862</v>
+        <v>203.1838537831904</v>
       </c>
       <c r="S16" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="T16" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="U16" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="V16" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="W16" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="X16" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.4889990226862</v>
+        <v>203.4889990226864</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>334.5492523845696</v>
       </c>
       <c r="I17" t="n">
-        <v>327.3610529217107</v>
+        <v>322.8208419520628</v>
       </c>
       <c r="J17" t="n">
-        <v>75.74597459497524</v>
+        <v>75.74597459497522</v>
       </c>
       <c r="K17" t="n">
-        <v>5.175029699350063</v>
+        <v>5.175029699350056</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.33728430081824</v>
+        <v>13.33728430081823</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.52329719321614</v>
+        <v>88.39403938744569</v>
       </c>
       <c r="R17" t="n">
         <v>194.1150504928036</v>
@@ -28621,7 +28621,7 @@
         <v>250.1495653186316</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>334.5492523845696</v>
       </c>
       <c r="W17" t="n">
         <v>334.5492523845696</v>
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.92878633101665</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>72.35060700992946</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28661,7 +28661,7 @@
         <v>125.6724707086533</v>
       </c>
       <c r="I18" t="n">
-        <v>20.31691892792944</v>
+        <v>107.1386269945785</v>
       </c>
       <c r="J18" t="n">
         <v>51.85834769223183</v>
@@ -28685,25 +28685,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.036068026875125</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3144462547807</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4695228506099</v>
+        <v>104.6478147839609</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9446082044576</v>
+        <v>144.5081157662283</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276399745649</v>
+        <v>150.405931907916</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>190.2320231119071</v>
+        <v>179.8828755103627</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28749,10 +28749,10 @@
         <v>66.3940617769113</v>
       </c>
       <c r="L19" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M19" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N19" t="n">
         <v>15.68256630572602</v>
@@ -28761,7 +28761,7 @@
         <v>36.70523308254135</v>
       </c>
       <c r="P19" t="n">
-        <v>57.81660688993937</v>
+        <v>57.81660688993936</v>
       </c>
       <c r="Q19" t="n">
         <v>126.7586570094679</v>
@@ -28822,10 +28822,10 @@
         <v>240.5393448550616</v>
       </c>
       <c r="J20" t="n">
-        <v>75.74597459497524</v>
+        <v>75.74597459497522</v>
       </c>
       <c r="K20" t="n">
-        <v>5.175029699350063</v>
+        <v>5.175029699350056</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.33728430081824</v>
+        <v>13.33728430081823</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.3940393874457</v>
+        <v>88.39403938744569</v>
       </c>
       <c r="R20" t="n">
         <v>194.1150504928036</v>
@@ -28852,13 +28852,13 @@
         <v>227.2389374904774</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4124663777658</v>
+        <v>309.2341744444147</v>
       </c>
       <c r="U20" t="n">
-        <v>334.5492523845696</v>
+        <v>250.1495653186316</v>
       </c>
       <c r="V20" t="n">
-        <v>332.4310624156336</v>
+        <v>330.009041414922</v>
       </c>
       <c r="W20" t="n">
         <v>334.5492523845696</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.92878633101665</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28892,13 +28892,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7380757353064</v>
+        <v>61.91636766865747</v>
       </c>
       <c r="H21" t="n">
         <v>125.6724707086533</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1386269945785</v>
+        <v>20.31691892792958</v>
       </c>
       <c r="J21" t="n">
         <v>51.85834769223183</v>
@@ -28922,25 +28922,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.036068026875125</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3144462547807</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S21" t="n">
-        <v>104.6478147839608</v>
+        <v>104.6478147839609</v>
       </c>
       <c r="T21" t="n">
         <v>214.9446082044576</v>
       </c>
       <c r="U21" t="n">
-        <v>150.4059319079158</v>
+        <v>237.2276399745649</v>
       </c>
       <c r="V21" t="n">
-        <v>164.1763604502978</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>190.2320231119072</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28986,10 +28986,10 @@
         <v>66.3940617769113</v>
       </c>
       <c r="L22" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M22" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N22" t="n">
         <v>15.68256630572602</v>
@@ -28998,7 +28998,7 @@
         <v>36.70523308254135</v>
       </c>
       <c r="P22" t="n">
-        <v>57.81660688993937</v>
+        <v>57.81660688993936</v>
       </c>
       <c r="Q22" t="n">
         <v>126.7586570094679</v>
@@ -29059,10 +29059,10 @@
         <v>240.5393448550616</v>
       </c>
       <c r="J23" t="n">
-        <v>75.74597459497524</v>
+        <v>75.74597459497522</v>
       </c>
       <c r="K23" t="n">
-        <v>5.175029699350063</v>
+        <v>5.175029699350056</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.33728430081824</v>
+        <v>13.33728430081823</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.3940393874457</v>
+        <v>88.39403938744569</v>
       </c>
       <c r="R23" t="n">
         <v>194.1150504928036</v>
@@ -29092,10 +29092,10 @@
         <v>222.4124663777658</v>
       </c>
       <c r="U23" t="n">
+        <v>332.4310624156329</v>
+      </c>
+      <c r="V23" t="n">
         <v>334.5492523845696</v>
-      </c>
-      <c r="V23" t="n">
-        <v>332.4310624156332</v>
       </c>
       <c r="W23" t="n">
         <v>334.5492523845696</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.92878633101665</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29135,7 +29135,7 @@
         <v>125.6724707086533</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1386269945785</v>
+        <v>20.31691892792958</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29159,22 +29159,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.036068026875125</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>109.700233481908</v>
+        <v>47.49273818813171</v>
       </c>
       <c r="S24" t="n">
-        <v>104.6478147839608</v>
+        <v>104.6478147839609</v>
       </c>
       <c r="T24" t="n">
         <v>214.9446082044576</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276399745649</v>
+        <v>218.6494952285675</v>
       </c>
       <c r="V24" t="n">
-        <v>153.8272128487532</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29223,10 +29223,10 @@
         <v>66.3940617769113</v>
       </c>
       <c r="L25" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M25" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N25" t="n">
         <v>15.68256630572602</v>
@@ -29235,7 +29235,7 @@
         <v>36.70523308254135</v>
       </c>
       <c r="P25" t="n">
-        <v>57.81660688993937</v>
+        <v>57.81660688993936</v>
       </c>
       <c r="Q25" t="n">
         <v>126.7586570094679</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519286</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8393079519263</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="27">
@@ -29375,7 +29375,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J27" t="n">
-        <v>34.10920913825528</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,22 +29396,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.036068026875125</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3144462547807</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8393079519278</v>
+        <v>137.9350928021222</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="28">
@@ -29439,19 +29439,19 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>212.8393079519278</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>185.0361335241564</v>
       </c>
       <c r="G28" t="n">
         <v>168.6953014514208</v>
       </c>
       <c r="H28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="I28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="J28" t="n">
         <v>119.8526328486804</v>
@@ -29460,10 +29460,10 @@
         <v>66.3940617769113</v>
       </c>
       <c r="L28" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M28" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N28" t="n">
         <v>15.68256630572602</v>
@@ -29472,34 +29472,34 @@
         <v>36.70523308254135</v>
       </c>
       <c r="P28" t="n">
-        <v>57.81660688993937</v>
+        <v>57.81660688993936</v>
       </c>
       <c r="Q28" t="n">
-        <v>187.7853925179341</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>212.8393079519278</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8393079519274</v>
+        <v>212.8393079519272</v>
       </c>
       <c r="L29" t="n">
         <v>212.8393079519278</v>
@@ -29594,7 +29594,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29612,7 +29612,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J30" t="n">
-        <v>51.85834769223183</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,16 +29633,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.036068026875125</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8393079519278</v>
+        <v>1.812001364223903</v>
       </c>
       <c r="U30" t="n">
         <v>212.8393079519278</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>116.5653077008042</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y30" t="n">
         <v>212.8393079519278</v>
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>183.0758158043993</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29682,7 +29682,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6953014514208</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="H31" t="n">
         <v>165.7757334795251</v>
@@ -29691,31 +29691,31 @@
         <v>164.6883657250528</v>
       </c>
       <c r="J31" t="n">
-        <v>212.8393079519278</v>
+        <v>119.8526328486804</v>
       </c>
       <c r="K31" t="n">
         <v>66.3940617769113</v>
       </c>
       <c r="L31" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M31" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N31" t="n">
-        <v>64.01965920746538</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O31" t="n">
         <v>36.70523308254135</v>
       </c>
       <c r="P31" t="n">
-        <v>57.81660688993937</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8393079519278</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R31" t="n">
-        <v>212.8393079519278</v>
+        <v>203.1838537831904</v>
       </c>
       <c r="S31" t="n">
         <v>212.8393079519278</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29837,19 +29837,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>114.1123875886184</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H33" t="n">
-        <v>125.6724707086533</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>107.1386269945785</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.036068026875125</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3144462547807</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S33" t="n">
         <v>191.4695228506099</v>
@@ -29885,7 +29885,7 @@
         <v>212.8393079519278</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8393079519278</v>
+        <v>81.31331645087056</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29910,34 +29910,34 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.8393079519278</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
+        <v>143.1199686196793</v>
+      </c>
+      <c r="G34" t="n">
         <v>212.8393079519278</v>
-      </c>
-      <c r="G34" t="n">
-        <v>168.6953014514208</v>
       </c>
       <c r="H34" t="n">
         <v>165.7757334795251</v>
       </c>
       <c r="I34" t="n">
+        <v>164.6883657250528</v>
+      </c>
+      <c r="J34" t="n">
         <v>212.8393079519278</v>
       </c>
-      <c r="J34" t="n">
-        <v>119.8526328486804</v>
-      </c>
       <c r="K34" t="n">
-        <v>104.0784550627851</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L34" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M34" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N34" t="n">
         <v>15.68256630572602</v>
@@ -29946,10 +29946,10 @@
         <v>36.70523308254135</v>
       </c>
       <c r="P34" t="n">
-        <v>57.81660688993937</v>
+        <v>57.81660688993936</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.7586570094679</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="R34" t="n">
         <v>212.8393079519278</v>
@@ -30010,34 +30010,34 @@
         <v>236.9135307750557</v>
       </c>
       <c r="K35" t="n">
-        <v>5.175029699350063</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L35" t="n">
-        <v>236.9135307750557</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>236.9135307750557</v>
+        <v>126.1180447692244</v>
       </c>
       <c r="N35" t="n">
         <v>236.9135307750557</v>
       </c>
       <c r="O35" t="n">
-        <v>89.84852036197003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>236.9135307750557</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.3940393874457</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R35" t="n">
-        <v>194.1150504928036</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S35" t="n">
         <v>236.9135307750557</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4124663777658</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U35" t="n">
         <v>236.9135307750557</v>
@@ -30077,16 +30077,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H36" t="n">
         <v>125.6724707086533</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1386269945785</v>
       </c>
       <c r="J36" t="n">
-        <v>51.85834769223183</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.036068026875125</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3144462547807</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S36" t="n">
         <v>191.4695228506099</v>
@@ -30119,19 +30119,19 @@
         <v>214.9446082044576</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V36" t="n">
-        <v>236.9135307750557</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>236.9135307750557</v>
+        <v>24.79056100869286</v>
       </c>
       <c r="X36" t="n">
-        <v>209.2436033784408</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30171,19 +30171,19 @@
         <v>66.3940617769113</v>
       </c>
       <c r="L37" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M37" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N37" t="n">
         <v>15.68256630572602</v>
       </c>
       <c r="O37" t="n">
-        <v>36.70523308254135</v>
+        <v>152.3417889074185</v>
       </c>
       <c r="P37" t="n">
-        <v>173.4531627148164</v>
+        <v>57.81660688993936</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7586570094679</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="C38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="D38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="E38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="F38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="G38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="H38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="I38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="J38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="K38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="L38" t="n">
-        <v>236.9135307750557</v>
+        <v>126.1180447692243</v>
       </c>
       <c r="M38" t="n">
-        <v>126.1180447692239</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="P38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="R38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="S38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="T38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="U38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="V38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="X38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
     </row>
     <row r="39">
@@ -30302,28 +30302,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H39" t="n">
         <v>125.6724707086533</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1386269945785</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.036068026875125</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3144462547807</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S39" t="n">
         <v>191.4695228506099</v>
@@ -30356,19 +30356,19 @@
         <v>214.9446082044576</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="V39" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="W39" t="n">
-        <v>236.9135307750557</v>
+        <v>179.879692190267</v>
       </c>
       <c r="X39" t="n">
-        <v>118.0971894664345</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30408,22 +30408,22 @@
         <v>66.3940617769113</v>
       </c>
       <c r="L40" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M40" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N40" t="n">
-        <v>131.3191221306031</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O40" t="n">
         <v>36.70523308254135</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81660688993937</v>
+        <v>63.29828894922881</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.7586570094679</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="R40" t="n">
         <v>203.1838537831904</v>
@@ -30435,13 +30435,13 @@
         <v>223.7381717812877</v>
       </c>
       <c r="U40" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="V40" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="W40" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30487,31 +30487,31 @@
         <v>236.9135307750558</v>
       </c>
       <c r="L41" t="n">
-        <v>236.9135307750558</v>
+        <v>150.2937024510917</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>236.9135307750558</v>
       </c>
       <c r="P41" t="n">
-        <v>80.52248566402949</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.3940393874457</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="R41" t="n">
-        <v>194.1150504928036</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="S41" t="n">
-        <v>236.9135307750558</v>
+        <v>227.2389374904774</v>
       </c>
       <c r="T41" t="n">
-        <v>236.9135307750558</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U41" t="n">
         <v>236.9135307750558</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30548,7 +30548,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>148.7380757353064</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.036068026875125</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S42" t="n">
         <v>191.4695228506099</v>
@@ -30593,19 +30593,19 @@
         <v>214.9446082044576</v>
       </c>
       <c r="U42" t="n">
-        <v>60.64817150256167</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="V42" t="n">
         <v>236.9135307750558</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>62.79496051779407</v>
       </c>
     </row>
     <row r="43">
@@ -30642,13 +30642,13 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K43" t="n">
-        <v>182.0306176017881</v>
+        <v>66.3940617769113</v>
       </c>
       <c r="L43" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M43" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N43" t="n">
         <v>15.68256630572602</v>
@@ -30657,7 +30657,7 @@
         <v>36.70523308254135</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81660688993937</v>
+        <v>173.4531627148161</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7586570094679</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J44" t="n">
-        <v>75.74597459497524</v>
+        <v>126.1180447692238</v>
       </c>
       <c r="K44" t="n">
-        <v>5.175029699350063</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L44" t="n">
-        <v>203.3911251470864</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="M44" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="O44" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.3940393874457</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2389374904774</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="45">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7380757353064</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.6724707086533</v>
@@ -30797,7 +30797,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.85834769223183</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.036068026875125</v>
+        <v>6.036068026875121</v>
       </c>
       <c r="R45" t="n">
-        <v>112.5065191947935</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S45" t="n">
         <v>191.4695228506099</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V45" t="n">
-        <v>236.9135307750558</v>
+        <v>99.73667014884907</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30879,22 +30879,22 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K46" t="n">
-        <v>66.3940617769113</v>
+        <v>182.0306176017883</v>
       </c>
       <c r="L46" t="n">
-        <v>31.33805968349144</v>
+        <v>31.33805968349143</v>
       </c>
       <c r="M46" t="n">
-        <v>24.35887319852011</v>
+        <v>24.3588731985201</v>
       </c>
       <c r="N46" t="n">
-        <v>131.3191221306029</v>
+        <v>15.68256630572602</v>
       </c>
       <c r="O46" t="n">
         <v>36.70523308254135</v>
       </c>
       <c r="P46" t="n">
-        <v>57.81660688993937</v>
+        <v>57.81660688993936</v>
       </c>
       <c r="Q46" t="n">
         <v>126.7586570094679</v>
@@ -30909,13 +30909,13 @@
         <v>223.7381717812877</v>
       </c>
       <c r="U46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31759,37 +31759,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L11" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M11" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N11" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O11" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P11" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R11" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S11" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T11" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U11" t="n">
         <v>0.03351370457516318</v>
@@ -31829,25 +31829,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H12" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I12" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J12" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K12" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M12" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N12" t="n">
         <v>58.29577009919193</v>
@@ -31856,10 +31856,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P12" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R12" t="n">
         <v>13.91650654351947</v>
@@ -31868,7 +31868,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U12" t="n">
         <v>0.014746227617462</v>
@@ -31923,19 +31923,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L13" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M13" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N13" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O13" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P13" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q13" t="n">
         <v>15.73520794967311</v>
@@ -31947,7 +31947,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T13" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024983690131786</v>
@@ -31996,37 +31996,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L14" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M14" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N14" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O14" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P14" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R14" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S14" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T14" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U14" t="n">
         <v>0.03351370457516318</v>
@@ -32066,25 +32066,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H15" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I15" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K15" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M15" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N15" t="n">
         <v>58.29577009919193</v>
@@ -32093,10 +32093,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P15" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R15" t="n">
         <v>13.91650654351947</v>
@@ -32105,7 +32105,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U15" t="n">
         <v>0.014746227617462</v>
@@ -32160,19 +32160,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L16" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M16" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N16" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O16" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P16" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q16" t="n">
         <v>15.73520794967311</v>
@@ -32184,7 +32184,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T16" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024983690131786</v>
@@ -32233,37 +32233,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L17" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M17" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N17" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O17" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P17" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R17" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S17" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T17" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U17" t="n">
         <v>0.03351370457516318</v>
@@ -32303,25 +32303,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H18" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I18" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K18" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M18" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N18" t="n">
         <v>58.29577009919193</v>
@@ -32330,10 +32330,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P18" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R18" t="n">
         <v>13.91650654351947</v>
@@ -32342,7 +32342,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U18" t="n">
         <v>0.014746227617462</v>
@@ -32397,19 +32397,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L19" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M19" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N19" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O19" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P19" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q19" t="n">
         <v>15.73520794967311</v>
@@ -32421,7 +32421,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T19" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024983690131786</v>
@@ -32470,37 +32470,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L20" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M20" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N20" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O20" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P20" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R20" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S20" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T20" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U20" t="n">
         <v>0.03351370457516318</v>
@@ -32540,25 +32540,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H21" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I21" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K21" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M21" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N21" t="n">
         <v>58.29577009919193</v>
@@ -32567,10 +32567,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P21" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R21" t="n">
         <v>13.91650654351947</v>
@@ -32579,7 +32579,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U21" t="n">
         <v>0.014746227617462</v>
@@ -32634,19 +32634,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L22" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M22" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N22" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O22" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P22" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q22" t="n">
         <v>15.73520794967311</v>
@@ -32658,7 +32658,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T22" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024983690131786</v>
@@ -32707,37 +32707,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L23" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M23" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N23" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O23" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P23" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R23" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S23" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T23" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U23" t="n">
         <v>0.03351370457516318</v>
@@ -32777,25 +32777,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H24" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I24" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K24" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M24" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N24" t="n">
         <v>58.29577009919193</v>
@@ -32804,10 +32804,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P24" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R24" t="n">
         <v>13.91650654351947</v>
@@ -32816,7 +32816,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U24" t="n">
         <v>0.014746227617462</v>
@@ -32871,19 +32871,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L25" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M25" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N25" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O25" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P25" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q25" t="n">
         <v>15.73520794967311</v>
@@ -32895,7 +32895,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T25" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024983690131786</v>
@@ -32944,37 +32944,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L26" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M26" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N26" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O26" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P26" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R26" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S26" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T26" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U26" t="n">
         <v>0.03351370457516318</v>
@@ -33014,25 +33014,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H27" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I27" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K27" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M27" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N27" t="n">
         <v>58.29577009919193</v>
@@ -33041,10 +33041,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P27" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R27" t="n">
         <v>13.91650654351947</v>
@@ -33053,7 +33053,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U27" t="n">
         <v>0.014746227617462</v>
@@ -33108,19 +33108,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L28" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M28" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N28" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O28" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P28" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q28" t="n">
         <v>15.73520794967311</v>
@@ -33132,7 +33132,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T28" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024983690131786</v>
@@ -33181,37 +33181,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L29" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M29" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N29" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O29" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P29" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R29" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S29" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T29" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U29" t="n">
         <v>0.03351370457516318</v>
@@ -33251,25 +33251,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H30" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I30" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K30" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M30" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N30" t="n">
         <v>58.29577009919193</v>
@@ -33278,10 +33278,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P30" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R30" t="n">
         <v>13.91650654351947</v>
@@ -33290,7 +33290,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U30" t="n">
         <v>0.014746227617462</v>
@@ -33345,19 +33345,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L31" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M31" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N31" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O31" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P31" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q31" t="n">
         <v>15.73520794967311</v>
@@ -33369,7 +33369,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T31" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024983690131786</v>
@@ -33418,37 +33418,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L32" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M32" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N32" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O32" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P32" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R32" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S32" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T32" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U32" t="n">
         <v>0.03351370457516318</v>
@@ -33488,25 +33488,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H33" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I33" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K33" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M33" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N33" t="n">
         <v>58.29577009919193</v>
@@ -33515,10 +33515,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P33" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R33" t="n">
         <v>13.91650654351947</v>
@@ -33527,7 +33527,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U33" t="n">
         <v>0.014746227617462</v>
@@ -33582,19 +33582,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L34" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M34" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N34" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O34" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P34" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q34" t="n">
         <v>15.73520794967311</v>
@@ -33606,7 +33606,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T34" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024983690131786</v>
@@ -33655,37 +33655,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L35" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M35" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N35" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O35" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P35" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R35" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S35" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T35" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U35" t="n">
         <v>0.03351370457516318</v>
@@ -33725,25 +33725,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H36" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I36" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K36" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M36" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N36" t="n">
         <v>58.29577009919193</v>
@@ -33752,10 +33752,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P36" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R36" t="n">
         <v>13.91650654351947</v>
@@ -33764,7 +33764,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U36" t="n">
         <v>0.014746227617462</v>
@@ -33819,19 +33819,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L37" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M37" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N37" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O37" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P37" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q37" t="n">
         <v>15.73520794967311</v>
@@ -33843,7 +33843,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T37" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024983690131786</v>
@@ -33892,37 +33892,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L38" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M38" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N38" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O38" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P38" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R38" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S38" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T38" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U38" t="n">
         <v>0.03351370457516318</v>
@@ -33962,25 +33962,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H39" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I39" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K39" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M39" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N39" t="n">
         <v>58.29577009919193</v>
@@ -33989,10 +33989,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P39" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R39" t="n">
         <v>13.91650654351947</v>
@@ -34001,7 +34001,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U39" t="n">
         <v>0.014746227617462</v>
@@ -34056,19 +34056,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L40" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M40" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N40" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O40" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P40" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q40" t="n">
         <v>15.73520794967311</v>
@@ -34080,7 +34080,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T40" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024983690131786</v>
@@ -34129,37 +34129,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L41" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M41" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N41" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O41" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P41" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R41" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S41" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T41" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U41" t="n">
         <v>0.03351370457516318</v>
@@ -34199,25 +34199,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H42" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I42" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K42" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M42" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N42" t="n">
         <v>58.29577009919193</v>
@@ -34226,10 +34226,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P42" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R42" t="n">
         <v>13.91650654351947</v>
@@ -34238,7 +34238,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U42" t="n">
         <v>0.014746227617462</v>
@@ -34293,19 +34293,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L43" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M43" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N43" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O43" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P43" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q43" t="n">
         <v>15.73520794967311</v>
@@ -34317,7 +34317,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T43" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024983690131786</v>
@@ -34366,37 +34366,37 @@
         <v>16.15046369542475</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55542229607823</v>
+        <v>35.55542229607824</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28836122941146</v>
+        <v>53.28836122941147</v>
       </c>
       <c r="L44" t="n">
-        <v>66.10892418431335</v>
+        <v>66.10892418431337</v>
       </c>
       <c r="M44" t="n">
-        <v>73.55891598104533</v>
+        <v>73.55891598104535</v>
       </c>
       <c r="N44" t="n">
-        <v>74.74917614509762</v>
+        <v>74.74917614509764</v>
       </c>
       <c r="O44" t="n">
-        <v>70.58352739673163</v>
+        <v>70.58352739673164</v>
       </c>
       <c r="P44" t="n">
         <v>60.24140762548986</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.23878831176444</v>
+        <v>45.23878831176445</v>
       </c>
       <c r="R44" t="n">
-        <v>26.31506556274495</v>
+        <v>26.31506556274496</v>
       </c>
       <c r="S44" t="n">
         <v>9.546169287581648</v>
       </c>
       <c r="T44" t="n">
-        <v>1.833828022222211</v>
+        <v>1.833828022222212</v>
       </c>
       <c r="U44" t="n">
         <v>0.03351370457516318</v>
@@ -34436,25 +34436,25 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2241426597854223</v>
+        <v>0.2241426597854224</v>
       </c>
       <c r="H45" t="n">
-        <v>2.164746214243421</v>
+        <v>2.164746214243422</v>
       </c>
       <c r="I45" t="n">
-        <v>7.717192453138446</v>
+        <v>7.717192453138447</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17656594051659</v>
+        <v>21.1765659405166</v>
       </c>
       <c r="K45" t="n">
         <v>36.19412414613989</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66746654683041</v>
+        <v>48.66746654683042</v>
       </c>
       <c r="M45" t="n">
-        <v>56.79263796405196</v>
+        <v>56.79263796405197</v>
       </c>
       <c r="N45" t="n">
         <v>58.29577009919193</v>
@@ -34463,10 +34463,10 @@
         <v>53.32924063763073</v>
       </c>
       <c r="P45" t="n">
-        <v>42.80141720060403</v>
+        <v>42.80141720060404</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.61161390524093</v>
+        <v>28.61161390524094</v>
       </c>
       <c r="R45" t="n">
         <v>13.91650654351947</v>
@@ -34475,7 +34475,7 @@
         <v>4.163351597330101</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034522120298379</v>
+        <v>0.9034522120298381</v>
       </c>
       <c r="U45" t="n">
         <v>0.014746227617462</v>
@@ -34530,19 +34530,19 @@
         <v>21.83215259980701</v>
       </c>
       <c r="L46" t="n">
-        <v>27.93763878069201</v>
+        <v>27.93763878069202</v>
       </c>
       <c r="M46" t="n">
-        <v>29.45632294823726</v>
+        <v>29.45632294823727</v>
       </c>
       <c r="N46" t="n">
-        <v>28.75591742664723</v>
+        <v>28.75591742664724</v>
       </c>
       <c r="O46" t="n">
         <v>26.56074402361499</v>
       </c>
       <c r="P46" t="n">
-        <v>22.72730502252209</v>
+        <v>22.7273050225221</v>
       </c>
       <c r="Q46" t="n">
         <v>15.73520794967311</v>
@@ -34554,7 +34554,7 @@
         <v>3.274822889971051</v>
       </c>
       <c r="T46" t="n">
-        <v>0.802903890603231</v>
+        <v>0.8029038906032311</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024983690131786</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.11836494962078</v>
+        <v>49.1183649496208</v>
       </c>
       <c r="M11" t="n">
-        <v>84.39487646247187</v>
+        <v>83.8212811471281</v>
       </c>
       <c r="N11" t="n">
-        <v>86.82170806664908</v>
+        <v>78.26604557622244</v>
       </c>
       <c r="O11" t="n">
-        <v>36.6222269205328</v>
+        <v>36.62222692053281</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>86.57701734253614</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>9.373948529882789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>86.82170806664908</v>
+        <v>84.41895409882476</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="N12" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>84.41895409882508</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="P12" t="n">
-        <v>85.71651423380041</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,19 +35544,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7.635616669551081</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>58.30634877197568</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.8128578104614</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>64.56211680423974</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>34.79369757126558</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.46722149419654</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.73034201321838</v>
+        <v>76.73034201321852</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>86.57701734253611</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>86.82170806664908</v>
+        <v>49.1183649496208</v>
       </c>
       <c r="M14" t="n">
-        <v>86.82170806664908</v>
+        <v>83.8212811471281</v>
       </c>
       <c r="N14" t="n">
-        <v>83.3137602659764</v>
+        <v>78.26604557622244</v>
       </c>
       <c r="O14" t="n">
-        <v>86.82170806664908</v>
+        <v>36.62222692053281</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9.373948529882789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="M15" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>83.3137602659764</v>
+        <v>84.41895409882476</v>
       </c>
       <c r="O15" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,37 +35778,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.87207835771815</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>26.75380781898802</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.81285781046125</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>64.56211680423959</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>37.71326554316118</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>38.80063329763355</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>83.63636617400601</v>
       </c>
       <c r="K16" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35817,16 +35817,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>17.85193008920496</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>76.73034201321852</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3051452394958165</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>86.82170806664908</v>
+        <v>82.28149709700129</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.11836494962078</v>
+        <v>49.1183649496208</v>
       </c>
       <c r="M17" t="n">
-        <v>83.82128114712809</v>
+        <v>83.8212811471281</v>
       </c>
       <c r="N17" t="n">
-        <v>78.26604557622242</v>
+        <v>78.26604557622244</v>
       </c>
       <c r="O17" t="n">
-        <v>36.6222269205328</v>
+        <v>36.62222692053281</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.129257805770436</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>13.66946877541761</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>84.41895409882511</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="M18" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="N18" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>83.31376026597628</v>
       </c>
       <c r="P18" t="n">
-        <v>85.71651423380041</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.11836494962078</v>
+        <v>49.1183649496208</v>
       </c>
       <c r="M20" t="n">
-        <v>83.82128114712809</v>
+        <v>83.8212811471281</v>
       </c>
       <c r="N20" t="n">
-        <v>78.26604557622242</v>
+        <v>78.26604557622244</v>
       </c>
       <c r="O20" t="n">
-        <v>36.6222269205328</v>
+        <v>36.62222692053281</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36148,13 +36148,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="U20" t="n">
-        <v>84.39968706593798</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>11.55127880648157</v>
+        <v>9.129257805769978</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>86.82170806664908</v>
+        <v>84.41895409882476</v>
       </c>
       <c r="O21" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="P21" t="n">
-        <v>83.3137602659764</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.11836494962078</v>
+        <v>49.1183649496208</v>
       </c>
       <c r="M23" t="n">
-        <v>83.82128114712809</v>
+        <v>83.8212811471281</v>
       </c>
       <c r="N23" t="n">
-        <v>78.26604557622242</v>
+        <v>78.26604557622244</v>
       </c>
       <c r="O23" t="n">
-        <v>36.6222269205328</v>
+        <v>36.62222692053281</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36388,10 +36388,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>84.39968706593798</v>
+        <v>82.28149709700132</v>
       </c>
       <c r="V23" t="n">
-        <v>11.55127880648123</v>
+        <v>13.66946877541761</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>39.4010421815729</v>
       </c>
       <c r="L24" t="n">
-        <v>45.01791191725222</v>
+        <v>45.01791191725186</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="N24" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664894</v>
       </c>
       <c r="O24" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>85.71651423380041</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,16 +36607,16 @@
         <v>291.1053535281502</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4615348724606</v>
+        <v>249.4615348724614</v>
       </c>
       <c r="P26" t="n">
-        <v>199.5020236511081</v>
+        <v>199.5020236511095</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4452685644821</v>
+        <v>124.445268564482</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72425745912419</v>
+        <v>18.72425745912414</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>134.5846053067293</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71651423380041</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36735,19 +36735,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.1631667397028</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>46.10925130570974</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.06357447240273</v>
+        <v>47.06357447240267</v>
       </c>
       <c r="I28" t="n">
-        <v>48.15094222687495</v>
+        <v>48.1509422268749</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36771,10 +36771,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.02673550846621</v>
+        <v>86.08065094245987</v>
       </c>
       <c r="R28" t="n">
-        <v>9.655454168737366</v>
+        <v>9.655454168737309</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0933333569525</v>
+        <v>137.0933333569526</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6642782525773</v>
+        <v>207.6642782525771</v>
       </c>
       <c r="L29" t="n">
         <v>261.9576729015486</v>
@@ -36847,13 +36847,13 @@
         <v>249.4615348724606</v>
       </c>
       <c r="P29" t="n">
-        <v>199.5020236511095</v>
+        <v>199.5020236511096</v>
       </c>
       <c r="Q29" t="n">
         <v>124.4452685644821</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72425745912419</v>
+        <v>18.7242574591242</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>134.5846053067293</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71651423380041</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>37.8931655536886</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36978,7 +36978,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.14400650050699</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.98667510324742</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36999,19 +36999,19 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>48.33709290173935</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0227010619884</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08065094245993</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.655454168737366</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>124.4452685644821</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72425745912416</v>
+        <v>18.72425745912417</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>134.5846053067293</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71651423380041</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37206,28 +37206,28 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.65665770121706</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.91242573348111</v>
+        <v>4.19308640123266</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.14400650050696</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.15094222687492</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>92.98667510324739</v>
       </c>
       <c r="K34" t="n">
-        <v>37.68439328587382</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.0806509424599</v>
       </c>
       <c r="R34" t="n">
         <v>9.655454168737338</v>
@@ -37306,34 +37306,34 @@
         <v>161.1675561800805</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>231.7385010757056</v>
       </c>
       <c r="L35" t="n">
-        <v>286.0318957246765</v>
+        <v>49.1183649496208</v>
       </c>
       <c r="M35" t="n">
-        <v>320.7348119221838</v>
+        <v>209.9393259163525</v>
       </c>
       <c r="N35" t="n">
         <v>315.1795763512781</v>
       </c>
       <c r="O35" t="n">
-        <v>126.4707472825028</v>
+        <v>36.62222692053281</v>
       </c>
       <c r="P35" t="n">
         <v>223.5762464742375</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>148.51949138761</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.79848028225208</v>
       </c>
       <c r="S35" t="n">
-        <v>9.67459328457835</v>
+        <v>9.674593284578322</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>14.50106439728984</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>134.5846053067293</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71651423380041</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>115.6365558248771</v>
       </c>
       <c r="P37" t="n">
-        <v>115.636555824877</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>161.1675561800805</v>
+        <v>161.1675561800804</v>
       </c>
       <c r="K38" t="n">
         <v>231.7385010757056</v>
       </c>
       <c r="L38" t="n">
-        <v>286.0318957246765</v>
+        <v>175.2364097188451</v>
       </c>
       <c r="M38" t="n">
-        <v>209.939325916352</v>
+        <v>83.8212811471281</v>
       </c>
       <c r="N38" t="n">
-        <v>78.26604557622242</v>
+        <v>78.26604557622244</v>
       </c>
       <c r="O38" t="n">
-        <v>36.6222269205328</v>
+        <v>273.5357576955885</v>
       </c>
       <c r="P38" t="n">
-        <v>223.5762464742375</v>
+        <v>223.5762464742374</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.51949138761</v>
+        <v>148.5194913876099</v>
       </c>
       <c r="R38" t="n">
-        <v>42.79848028225207</v>
+        <v>42.79848028225205</v>
       </c>
       <c r="S38" t="n">
-        <v>9.674593284578322</v>
+        <v>9.674593284578293</v>
       </c>
       <c r="T38" t="n">
-        <v>14.50106439728984</v>
+        <v>14.50106439728981</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>134.5846053067293</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71651423380041</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37710,16 +37710,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>115.6365558248771</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.481682059289455</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>110.1548737655878</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,31 +37783,31 @@
         <v>231.7385010757057</v>
       </c>
       <c r="L41" t="n">
-        <v>286.0318957246766</v>
+        <v>199.4120674007125</v>
       </c>
       <c r="M41" t="n">
-        <v>83.82128114712809</v>
+        <v>83.8212811471281</v>
       </c>
       <c r="N41" t="n">
-        <v>315.1795763512782</v>
+        <v>78.26604557622244</v>
       </c>
       <c r="O41" t="n">
         <v>273.5357576955886</v>
       </c>
       <c r="P41" t="n">
-        <v>67.18520136321125</v>
+        <v>223.5762464742376</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>148.5194913876101</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.79848028225219</v>
       </c>
       <c r="S41" t="n">
-        <v>9.674593284578435</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>14.50106439728996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>134.5846053067293</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71651423380041</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>115.6365558248768</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>50.37207017424856</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>231.7385010757057</v>
       </c>
       <c r="L44" t="n">
-        <v>252.5094900967072</v>
+        <v>286.0318957246765</v>
       </c>
       <c r="M44" t="n">
-        <v>320.7348119221838</v>
+        <v>83.8212811471281</v>
       </c>
       <c r="N44" t="n">
         <v>315.1795763512782</v>
       </c>
       <c r="O44" t="n">
-        <v>273.5357576955886</v>
+        <v>36.62222692053281</v>
       </c>
       <c r="P44" t="n">
         <v>223.5762464742375</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>148.5194913876101</v>
       </c>
       <c r="R44" t="n">
-        <v>42.79848028225216</v>
+        <v>42.79848028225214</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.674593284578378</v>
       </c>
       <c r="T44" t="n">
-        <v>14.50106439728993</v>
+        <v>14.5010643972899</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>134.5846053067293</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71651423380041</v>
+        <v>85.71651423380042</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>115.636555824877</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>115.6365558248769</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
